--- a/Project/results_extra_rgrowing_glcm.xlsx
+++ b/Project/results_extra_rgrowing_glcm.xlsx
@@ -13,7 +13,2938 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="1345">
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
   <si>
     <t>final_1</t>
   </si>
@@ -1137,7 +4068,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1147,14 +4078,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,444 +4123,434 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>1162</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>186</v>
+        <v>1163</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>1164</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>188</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0043305058913799812</v>
+        <v>0.0014696200487516351</v>
       </c>
       <c r="B2" s="0">
-        <v>0.97058615281257665</v>
+        <v>0.98970890350254614</v>
       </c>
       <c r="C2" s="0">
-        <v>0.84846147138245076</v>
+        <v>0.85572753842906191</v>
       </c>
       <c r="D2" s="0">
-        <v>0.99783474705430986</v>
+        <v>0.99926518997562408</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>189</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0035823183112938103</v>
+        <v>0.0018155254178336196</v>
       </c>
       <c r="B3" s="0">
-        <v>0.97331719366984626</v>
+        <v>0.98629984563541562</v>
       </c>
       <c r="C3" s="0">
-        <v>0.86217483457586019</v>
+        <v>0.86566916037504493</v>
       </c>
       <c r="D3" s="0">
-        <v>0.99820884084435313</v>
+        <v>0.99909223729108332</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>189</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0070566606372111998</v>
+        <v>0.0023659162813452852</v>
       </c>
       <c r="B4" s="0">
-        <v>0.95632765129983521</v>
+        <v>0.98605540535985359</v>
       </c>
       <c r="C4" s="0">
-        <v>0.83141124597098415</v>
+        <v>0.82797420570176716</v>
       </c>
       <c r="D4" s="0">
-        <v>0.99647166968139433</v>
+        <v>0.99881704185932729</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>190</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0077112053273248994</v>
+        <v>0.0031227037186738254</v>
       </c>
       <c r="B5" s="0">
-        <v>0.96323916929432551</v>
+        <v>0.98622577891149033</v>
       </c>
       <c r="C5" s="0">
-        <v>0.78258136201820183</v>
+        <v>0.77018067348554009</v>
       </c>
       <c r="D5" s="0">
-        <v>0.99614439733633753</v>
+        <v>0.99843864814066308</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>190</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.00062683403899939708</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.92322841645578568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B6" s="0"/>
       <c r="C6" s="0">
-        <v>0.99120863626261591</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>0.99968658298050017</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0058249699721651289</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.90797031056376221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>0.9309144951380397</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>0.99708751501391757</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.010788998680399684</v>
+        <v>0.0020983651671382256</v>
       </c>
       <c r="B8" s="0">
-        <v>0.94847854384152885</v>
+        <v>0.98662354834981569</v>
       </c>
       <c r="C8" s="0">
-        <v>0.77991952824248822</v>
+        <v>0.84103594850052832</v>
       </c>
       <c r="D8" s="0">
-        <v>0.99460550065980002</v>
+        <v>0.99895081741643077</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>192</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.012886408307844313</v>
+        <v>0.00072238800835906119</v>
       </c>
       <c r="B9" s="0">
-        <v>0.94210273716929671</v>
+        <v>0.98561471715282489</v>
       </c>
       <c r="C9" s="0">
-        <v>0.76470594603409314</v>
+        <v>0.94906097675731005</v>
       </c>
       <c r="D9" s="0">
-        <v>0.99355679584607792</v>
+        <v>0.99963880599582033</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>192</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.011477942799482862</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.95020130521611723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>0.7581669803996367</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0">
-        <v>0.99426102860025845</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>192</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0045311692270352758</v>
+        <v>0.0016244174791142912</v>
       </c>
       <c r="B11" s="0">
-        <v>0.98146908869194682</v>
+        <v>0.99286646557663361</v>
       </c>
       <c r="C11" s="0">
-        <v>0.75096985905960423</v>
+        <v>0.77066256408967737</v>
       </c>
       <c r="D11" s="0">
-        <v>0.99773441538648222</v>
+        <v>0.99918779126044288</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>192</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0048273865320502349</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.98370859287657608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.69888102575816557</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>0.99758630673397475</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>193</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010702044568282389</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.94416163197763725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B13" s="0"/>
       <c r="C13" s="0">
-        <v>0.79775136177281991</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>0.99464897771585892</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>194</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0059186128621375993</v>
+        <v>0.001998989039004175</v>
       </c>
       <c r="B14" s="0">
-        <v>0.98258193315077647</v>
+        <v>0.99407182674485128</v>
       </c>
       <c r="C14" s="0">
-        <v>0.65431907259035682</v>
+        <v>0.66080348581416659</v>
       </c>
       <c r="D14" s="0">
-        <v>0.99704069356893121</v>
+        <v>0.99900050548049779</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>195</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.004257884874666636</v>
+        <v>0.0022512515181136884</v>
       </c>
       <c r="B15" s="0">
-        <v>0.98827356423118484</v>
+        <v>0.99381532563750907</v>
       </c>
       <c r="C15" s="0">
-        <v>0.63265887626159634</v>
+        <v>0.63374895780376406</v>
       </c>
       <c r="D15" s="0">
-        <v>0.99787105756266681</v>
+        <v>0.99887437424094316</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>195</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0077838263440382447</v>
+        <v>0.002480581044576882</v>
       </c>
       <c r="B16" s="0">
-        <v>0.97134155129533339</v>
+        <v>0.99023570596707133</v>
       </c>
       <c r="C16" s="0">
-        <v>0.72067007332427313</v>
+        <v>0.74347944906575614</v>
       </c>
       <c r="D16" s="0">
-        <v>0.99610808682798102</v>
+        <v>0.99875970947771142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>196</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0058154145752291626</v>
+        <v>0.0014810865250747948</v>
       </c>
       <c r="B17" s="0">
-        <v>0.96610384167052643</v>
+        <v>0.98847922505028341</v>
       </c>
       <c r="C17" s="0">
-        <v>0.82265280937649032</v>
+        <v>0.86996321653892539</v>
       </c>
       <c r="D17" s="0">
-        <v>0.99709229271238553</v>
+        <v>0.99925945673746264</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>197</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0036874276775894408</v>
+        <v>0.0017008606546020225</v>
       </c>
       <c r="B18" s="0">
-        <v>0.97758081914203265</v>
+        <v>0.98913415776334213</v>
       </c>
       <c r="C18" s="0">
-        <v>0.83184970168536321</v>
+        <v>0.84176923733964837</v>
       </c>
       <c r="D18" s="0">
-        <v>0.99815628616120533</v>
+        <v>0.99914956967269886</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>198</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0026888886977809502</v>
+        <v>0.0013033561420658195</v>
       </c>
       <c r="B19" s="0">
-        <v>0.98317313890742608</v>
+        <v>0.99152125094037369</v>
       </c>
       <c r="C19" s="0">
-        <v>0.83752093874877975</v>
+        <v>0.84497800803873524</v>
       </c>
       <c r="D19" s="0">
-        <v>0.99865555565110964</v>
+        <v>0.99934832192896694</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>199</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0092467576149347034</v>
+        <v>0.00308448213092996</v>
       </c>
       <c r="B20" s="0">
-        <v>0.97445361364154626</v>
+        <v>0.9910251826819485</v>
       </c>
       <c r="C20" s="0">
-        <v>0.62887922996523227</v>
+        <v>0.65324314717414556</v>
       </c>
       <c r="D20" s="0">
-        <v>0.99537662119253267</v>
+        <v>0.99845775893453514</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>200</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.014939863109383495</v>
+        <v>0.003126525877448212</v>
       </c>
       <c r="B21" s="0">
-        <v>0.95996008200223248</v>
+        <v>0.99009933491247748</v>
       </c>
       <c r="C21" s="0">
-        <v>0.6121591179587238</v>
+        <v>0.6810937695082826</v>
       </c>
       <c r="D21" s="0">
-        <v>0.99253006844530833</v>
+        <v>0.99843673706127589</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>201</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0069114186037845101</v>
+        <v>0.0020486771030712001</v>
       </c>
       <c r="B22" s="0">
-        <v>0.97631139961808744</v>
+        <v>0.99251490144243759</v>
       </c>
       <c r="C22" s="0">
-        <v>0.70137497475629829</v>
+        <v>0.72425476809873823</v>
       </c>
       <c r="D22" s="0">
-        <v>0.99654429069810779</v>
+        <v>0.99897566144846439</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>202</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0054064435863697994</v>
+        <v>0.0013587774442944246</v>
       </c>
       <c r="B23" s="0">
-        <v>0.97746964526311109</v>
+        <v>0.99396391042042864</v>
       </c>
       <c r="C23" s="0">
-        <v>0.7546601378982345</v>
+        <v>0.77353417566812332</v>
       </c>
       <c r="D23" s="0">
-        <v>0.99729677820681495</v>
+        <v>0.99932061127785288</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>203</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0045311692270352758</v>
+        <v>0.0021595197075284108</v>
       </c>
       <c r="B24" s="0">
-        <v>0.98872469756540537</v>
+        <v>0.99459793803821162</v>
       </c>
       <c r="C24" s="0">
-        <v>0.59362260496151142</v>
+        <v>0.59808673252899724</v>
       </c>
       <c r="D24" s="0">
-        <v>0.99773441538648222</v>
+        <v>0.99892024014623582</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>204</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0034428095160287005</v>
+        <v>0.0018289029735439725</v>
       </c>
       <c r="B25" s="0">
-        <v>0.98958302671868781</v>
+        <v>0.99436609488021321</v>
       </c>
       <c r="C25" s="0">
-        <v>0.66606905815162376</v>
+        <v>0.6735500588854485</v>
       </c>
       <c r="D25" s="0">
-        <v>0.99827859524198559</v>
+        <v>0.99908554851322806</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>205</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0020266996901184774</v>
+        <v>0.00041088206824655598</v>
       </c>
       <c r="B26" s="0">
-        <v>0.93687785614741759</v>
+        <v>0.98173710542062897</v>
       </c>
       <c r="C26" s="0">
-        <v>0.9658698213800333</v>
+        <v>0.97709109697211849</v>
       </c>
       <c r="D26" s="0">
-        <v>0.99898665015494081</v>
+        <v>0.99979455896587666</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>206</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="27">
@@ -1628,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>207</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="28">
@@ -1643,534 +4580,528 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>208</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0013434888091968784</v>
+        <v>0.00032488349582285823</v>
       </c>
       <c r="B29" s="0">
-        <v>0.95220373496255439</v>
+        <v>0.98575815283023194</v>
       </c>
       <c r="C29" s="0">
-        <v>0.97054965937521376</v>
+        <v>0.97686332890855498</v>
       </c>
       <c r="D29" s="0">
-        <v>0.99932825559540162</v>
+        <v>0.99983755825208853</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>208</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0088731415947384158</v>
+        <v>0.0023257836142142265</v>
       </c>
       <c r="B30" s="0">
-        <v>0.97373642397886295</v>
+        <v>0.99342509785218547</v>
       </c>
       <c r="C30" s="0">
-        <v>0.65335587905055803</v>
+        <v>0.64394301301417478</v>
       </c>
       <c r="D30" s="0">
-        <v>0.99556342920263086</v>
+        <v>0.99883710819289295</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>209</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0074188101810843277</v>
+        <v>0.0020945430083638391</v>
       </c>
       <c r="B31" s="0">
-        <v>0.97673230942209588</v>
+        <v>0.99365815553671311</v>
       </c>
       <c r="C31" s="0">
-        <v>0.67379022378933262</v>
+        <v>0.66763636917070357</v>
       </c>
       <c r="D31" s="0">
-        <v>0.99629059490945782</v>
+        <v>0.99895272849581795</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>210</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0063791829944511809</v>
+        <v>0.0022875620264703606</v>
       </c>
       <c r="B32" s="0">
-        <v>0.97863950936873079</v>
+        <v>0.99208099176538123</v>
       </c>
       <c r="C32" s="0">
-        <v>0.69501748147036435</v>
+        <v>0.7088479086029037</v>
       </c>
       <c r="D32" s="0">
-        <v>0.99681040850277436</v>
+        <v>0.99885621898676469</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>211</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0074818758008617058</v>
+        <v>0.002195830215885083</v>
       </c>
       <c r="B33" s="0">
-        <v>0.97811400833628581</v>
+        <v>0.99325959590293633</v>
       </c>
       <c r="C33" s="0">
-        <v>0.6507172694983232</v>
+        <v>0.67203768987303381</v>
       </c>
       <c r="D33" s="0">
-        <v>0.99625906209956927</v>
+        <v>0.99890208489205734</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>212</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0039024241086486854</v>
+        <v>0.0018289029735439725</v>
       </c>
       <c r="B34" s="0">
-        <v>0.97655102013103079</v>
+        <v>0.98849798461193095</v>
       </c>
       <c r="C34" s="0">
-        <v>0.82969089091157433</v>
+        <v>0.83916726692292387</v>
       </c>
       <c r="D34" s="0">
-        <v>0.99804878794567564</v>
+        <v>0.99908554851322806</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>213</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0036539837883135585</v>
+        <v>0.0020047222771657548</v>
       </c>
       <c r="B35" s="0">
-        <v>0.97772317443506029</v>
+        <v>0.98733376243008475</v>
       </c>
       <c r="C35" s="0">
-        <v>0.83233313446363344</v>
+        <v>0.83972638677446387</v>
       </c>
       <c r="D35" s="0">
-        <v>0.99817300810584308</v>
+        <v>0.99899763886141724</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0027223325870568325</v>
+        <v>0.00099758344011489399</v>
       </c>
       <c r="B36" s="0">
-        <v>0.973445132059366</v>
+        <v>0.98886361811004786</v>
       </c>
       <c r="C36" s="0">
-        <v>0.89476780773294018</v>
+        <v>0.90942463740779689</v>
       </c>
       <c r="D36" s="0">
-        <v>0.99863883370647155</v>
+        <v>0.99950120827994249</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0027672429526558748</v>
+        <v>0.00082558629526749861</v>
       </c>
       <c r="B37" s="0">
-        <v>0.96756783696313176</v>
+        <v>0.98801091902611748</v>
       </c>
       <c r="C37" s="0">
-        <v>0.91191638157493637</v>
+        <v>0.93031357896722966</v>
       </c>
       <c r="D37" s="0">
-        <v>0.99861637852367202</v>
+        <v>0.99958720685236613</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0039492455536349206</v>
+        <v>0.0011026928064105247</v>
       </c>
       <c r="B38" s="0">
-        <v>0.97461640138163153</v>
+        <v>0.99206995944465348</v>
       </c>
       <c r="C38" s="0">
-        <v>0.84048377922422479</v>
+        <v>0.85984591693536683</v>
       </c>
       <c r="D38" s="0">
-        <v>0.99802537722318241</v>
+        <v>0.99944865359679469</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0022130299303698225</v>
+        <v>0.0010625601392794657</v>
       </c>
       <c r="B39" s="0">
-        <v>0.98486735132050707</v>
+        <v>0.99240211269261946</v>
       </c>
       <c r="C39" s="0">
-        <v>0.85154979341466142</v>
+        <v>0.85908914808968673</v>
       </c>
       <c r="D39" s="0">
-        <v>0.99889348503481523</v>
+        <v>0.99946871993036024</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0039731340459748365</v>
+        <v>0.0012441126810628278</v>
       </c>
       <c r="B40" s="0">
-        <v>0.97611829625085489</v>
+        <v>0.99249299599941065</v>
       </c>
       <c r="C40" s="0">
-        <v>0.82967537378053413</v>
+        <v>0.83303051118999361</v>
       </c>
       <c r="D40" s="0">
-        <v>0.99801343297701262</v>
+        <v>0.99937794365946864</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0029315957799544972</v>
+        <v>0.0011657584261879031</v>
       </c>
       <c r="B41" s="0">
-        <v>0.9713383714946926</v>
+        <v>0.98882995896305848</v>
       </c>
       <c r="C41" s="0">
-        <v>0.89479405319698635</v>
+        <v>0.89447086078333427</v>
       </c>
       <c r="D41" s="0">
-        <v>0.99853420211002275</v>
+        <v>0.99941712078690614</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.0044279709401268382</v>
+        <v>0.0010663822980538523</v>
       </c>
       <c r="B42" s="0">
-        <v>0.96282962700383012</v>
+        <v>0.99027175209636054</v>
       </c>
       <c r="C42" s="0">
-        <v>0.87646528391620049</v>
+        <v>0.88931765746603175</v>
       </c>
       <c r="D42" s="0">
-        <v>0.99778601452993654</v>
+        <v>0.99946680885097305</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.0024996918384488152</v>
+        <v>0.00083705277159065825</v>
       </c>
       <c r="B43" s="0">
-        <v>0.97320302070327613</v>
+        <v>0.98966178768437918</v>
       </c>
       <c r="C43" s="0">
-        <v>0.90422395895303287</v>
+        <v>0.9181967702442565</v>
       </c>
       <c r="D43" s="0">
-        <v>0.99875015408077561</v>
+        <v>0.9995814736142048</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.0023391611699245794</v>
+        <v>0.00097273940808138143</v>
       </c>
       <c r="B44" s="0">
-        <v>0.9774218315678368</v>
+        <v>0.98999693252183785</v>
       </c>
       <c r="C44" s="0">
-        <v>0.89406352372663778</v>
+        <v>0.90178409542454518</v>
       </c>
       <c r="D44" s="0">
-        <v>0.9988304194150377</v>
+        <v>0.99951363029595941</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.0041164650000143329</v>
+        <v>0.0011734027437366762</v>
       </c>
       <c r="B45" s="0">
-        <v>0.97722049520348486</v>
+        <v>0.99274709787450899</v>
       </c>
       <c r="C45" s="0">
-        <v>0.81519132805334116</v>
+        <v>0.83704408080946269</v>
       </c>
       <c r="D45" s="0">
-        <v>0.99794176749999286</v>
+        <v>0.99941329862813166</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.0070881934470998897</v>
+        <v>0.0011103371239592978</v>
       </c>
       <c r="B46" s="0">
-        <v>0.93513991151403653</v>
+        <v>0.97320139509129089</v>
       </c>
       <c r="C46" s="0">
-        <v>0.88367768615044096</v>
+        <v>0.95745824922145073</v>
       </c>
       <c r="D46" s="0">
-        <v>0.99645590327645017</v>
+        <v>0.99944483143802021</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.0045827683704894942</v>
-      </c>
-      <c r="B47" s="0">
-        <v>0.91756898769345718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0">
-        <v>0.93984303636635902</v>
+        <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.99770861581475523</v>
+        <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0020429438649096202</v>
-      </c>
-      <c r="B48" s="0">
-        <v>0.92239427085058678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0">
-        <v>0.9716365770866684</v>
+        <v>1</v>
       </c>
       <c r="D48" s="0">
-        <v>0.99897852806754517</v>
+        <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.0048636970404069071</v>
-      </c>
-      <c r="B49" s="0">
-        <v>0.93923749163873005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0">
-        <v>0.91511558292924255</v>
+        <v>1</v>
       </c>
       <c r="D49" s="0">
-        <v>0.99756815147979661</v>
+        <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.0091922918523996942</v>
+        <v>0.0035890070891489868</v>
       </c>
       <c r="B50" s="0">
-        <v>0.97896200101851583</v>
+        <v>0.99179363131019072</v>
       </c>
       <c r="C50" s="0">
-        <v>0.55395465064806027</v>
+        <v>0.55907975435691271</v>
       </c>
       <c r="D50" s="0">
-        <v>0.99540385407380017</v>
+        <v>0.99820549645542567</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.011078527207559466</v>
+        <v>0.0029698173676983627</v>
       </c>
       <c r="B51" s="0">
-        <v>0.97292811658359912</v>
+        <v>0.99244642914099446</v>
       </c>
       <c r="C51" s="0">
-        <v>0.57981788723732164</v>
+        <v>0.60387166171121487</v>
       </c>
       <c r="D51" s="0">
-        <v>0.99446073639622024</v>
+        <v>0.99851509131615068</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.0041164650000143329</v>
+        <v>0.0013645106824560047</v>
       </c>
       <c r="B52" s="0">
-        <v>0.97682910583249072</v>
+        <v>0.99174025632960894</v>
       </c>
       <c r="C52" s="0">
-        <v>0.81824376275496091</v>
+        <v>0.8334372267348773</v>
       </c>
       <c r="D52" s="0">
-        <v>0.99794176749999286</v>
+        <v>0.9993177446587721</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.0027653318732686815</v>
+        <v>0.0011562030292519366</v>
       </c>
       <c r="B53" s="0">
-        <v>0.97132362682273488</v>
+        <v>0.98651991454692756</v>
       </c>
       <c r="C53" s="0">
-        <v>0.90080990177922082</v>
+        <v>0.91307393942605641</v>
       </c>
       <c r="D53" s="0">
-        <v>0.9986173340633655</v>
+        <v>0.99942189848537411</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0051255149164523865</v>
+        <v>0.0027271102855248156</v>
       </c>
       <c r="B54" s="0">
-        <v>0.97339644920814428</v>
+        <v>0.98689741727889368</v>
       </c>
       <c r="C54" s="0">
-        <v>0.80223794354659161</v>
+        <v>0.78914500394167597</v>
       </c>
       <c r="D54" s="0">
-        <v>0.99743724254177368</v>
+        <v>0.99863644485723757</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.0034628758495942303</v>
+        <v>0.0019693673085026788</v>
       </c>
       <c r="B55" s="0">
-        <v>0.98487996413627232</v>
+        <v>0.9915717158982712</v>
       </c>
       <c r="C55" s="0">
-        <v>0.76752347836582779</v>
+        <v>0.76437279719237161</v>
       </c>
       <c r="D55" s="0">
-        <v>0.99826856207520276</v>
+        <v>0.99901531634574858</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.0066591561246749972</v>
+        <v>0.0017505487186690479</v>
       </c>
       <c r="B56" s="0">
-        <v>0.96382358480202723</v>
+        <v>0.99006709440231699</v>
       </c>
       <c r="C56" s="0">
-        <v>0.80931067205613394</v>
+        <v>0.82201519003206658</v>
       </c>
       <c r="D56" s="0">
-        <v>0.99667042193766242</v>
+        <v>0.99912472564066546</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.0055058197145038505</v>
+        <v>0.0015728183356600726</v>
       </c>
       <c r="B57" s="0">
-        <v>0.95346156847229091</v>
+        <v>0.98250090672789492</v>
       </c>
       <c r="C57" s="0">
-        <v>0.87621754814647901</v>
+        <v>0.90854966500159495</v>
       </c>
       <c r="D57" s="0">
-        <v>0.99724709014274793</v>
+        <v>0.99921359083216987</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.014034967019547475</v>
+        <v>0.0019206347841292501</v>
       </c>
       <c r="B58" s="0">
-        <v>0.94195052257479317</v>
+        <v>0.98650253929376985</v>
       </c>
       <c r="C58" s="0">
-        <v>0.74438607244317656</v>
+        <v>0.8557870454984936</v>
       </c>
       <c r="D58" s="0">
-        <v>0.9929825164902264</v>
+        <v>0.99903968260793552</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>214</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.0096872614136827555</v>
+        <v>0.0014103765877486435</v>
       </c>
       <c r="B59" s="0">
-        <v>0.95836151380460111</v>
+        <v>0.99208650411324861</v>
       </c>
       <c r="C59" s="0">
-        <v>0.75775495811422977</v>
+        <v>0.82036739815228799</v>
       </c>
       <c r="D59" s="0">
-        <v>0.99515636929315865</v>
+        <v>0.99929481170612566</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>214</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="60">
@@ -2185,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>215</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="61">
@@ -2200,1809 +5131,1761 @@
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>216</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.0024767588858024955</v>
+        <v>0.0017505487186690479</v>
       </c>
       <c r="B62" s="0">
-        <v>0.98712024588464231</v>
+        <v>0.9907673029866424</v>
       </c>
       <c r="C62" s="0">
-        <v>0.80523075983706627</v>
+        <v>0.80864933516493043</v>
       </c>
       <c r="D62" s="0">
-        <v>0.99876162055709872</v>
+        <v>0.99912472564066546</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>217</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.004525435988873696</v>
+        <v>0.0020381661664416371</v>
       </c>
       <c r="B63" s="0">
-        <v>0.97812729346962135</v>
+        <v>0.9896305949251214</v>
       </c>
       <c r="C63" s="0">
-        <v>0.78859627764335949</v>
+        <v>0.80141024037593867</v>
       </c>
       <c r="D63" s="0">
-        <v>0.997737282005563</v>
+        <v>0.99898091691677915</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>217</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.0053347781093500517</v>
+        <v>0.001475353286913215</v>
       </c>
       <c r="B64" s="0">
-        <v>0.97126821442283784</v>
+        <v>0.99128262446917559</v>
       </c>
       <c r="C64" s="0">
-        <v>0.80901854871391343</v>
+        <v>0.82928399545628961</v>
       </c>
       <c r="D64" s="0">
-        <v>0.9973326109453251</v>
+        <v>0.99926232335654341</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>217</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.0043993047493189391</v>
+        <v>0.0016454393523734172</v>
       </c>
       <c r="B65" s="0">
-        <v>0.97880881332851999</v>
+        <v>0.99167935332190293</v>
       </c>
       <c r="C65" s="0">
-        <v>0.78801936977885068</v>
+        <v>0.80060348574644358</v>
       </c>
       <c r="D65" s="0">
-        <v>0.99780034762534053</v>
+        <v>0.99917728032381337</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>218</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.0036520727089263652</v>
+        <v>0.001912990466580477</v>
       </c>
       <c r="B66" s="0">
-        <v>0.97361489769663134</v>
+        <v>0.98636879727769788</v>
       </c>
       <c r="C66" s="0">
-        <v>0.8579470694102127</v>
+        <v>0.85775158780126515</v>
       </c>
       <c r="D66" s="0">
-        <v>0.99817396364553679</v>
+        <v>0.99904350476670989</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>219</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.0041546865877581992</v>
-      </c>
-      <c r="B67" s="0">
-        <v>0.95404587990596323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B67" s="0"/>
       <c r="C67" s="0">
-        <v>0.9054531277744623</v>
+        <v>1</v>
       </c>
       <c r="D67" s="0">
-        <v>0.99792265670612101</v>
+        <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>219</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.0075793408496085636</v>
+        <v>0.0034475872144966837</v>
       </c>
       <c r="B68" s="0">
-        <v>0.96503832008135915</v>
+        <v>0.98465997752862822</v>
       </c>
       <c r="C68" s="0">
-        <v>0.77568815532555313</v>
+        <v>0.77181969863155153</v>
       </c>
       <c r="D68" s="0">
-        <v>0.99621032957519584</v>
+        <v>0.99827620639275161</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>219</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.0060619438161770957</v>
+        <v>0.0027366656824607824</v>
       </c>
       <c r="B69" s="0">
-        <v>0.96634114420044837</v>
+        <v>0.98528734808829121</v>
       </c>
       <c r="C69" s="0">
-        <v>0.81387528207125026</v>
+        <v>0.81126318214617132</v>
       </c>
       <c r="D69" s="0">
-        <v>0.99696902809191146</v>
+        <v>0.99863166715876961</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>219</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.0027767983495918412</v>
-      </c>
-      <c r="B70" s="0">
-        <v>0.91493819640562002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B70" s="0"/>
       <c r="C70" s="0">
-        <v>0.96458643221961538</v>
+        <v>1</v>
       </c>
       <c r="D70" s="0">
-        <v>0.99861160082520395</v>
+        <v>1</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>219</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.0072277022423649986</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0.97403590763616088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B71" s="0"/>
       <c r="C71" s="0">
-        <v>0.71445153902545655</v>
+        <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.99638614887881749</v>
+        <v>1</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>220</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.0060313665459820033</v>
+        <v>0.0017601041156050142</v>
       </c>
       <c r="B72" s="0">
-        <v>0.97088020924294793</v>
+        <v>0.99048910688270619</v>
       </c>
       <c r="C72" s="0">
-        <v>0.7868824186343788</v>
+        <v>0.81318107654213945</v>
       </c>
       <c r="D72" s="0">
-        <v>0.99698431672700916</v>
+        <v>0.99911994794219749</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>221</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.0063065619777378365</v>
+        <v>0.001872857799449418</v>
       </c>
       <c r="B73" s="0">
-        <v>0.96260707994081862</v>
+        <v>0.98669975961669498</v>
       </c>
       <c r="C73" s="0">
-        <v>0.82507663169982015</v>
+        <v>0.85731681895813716</v>
       </c>
       <c r="D73" s="0">
-        <v>0.9968467190111312</v>
+        <v>0.99906357110027522</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>221</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.004068688015334501</v>
+        <v>0.0011542919498647433</v>
       </c>
       <c r="B74" s="0">
-        <v>0.9717482494081241</v>
+        <v>0.99081789827653466</v>
       </c>
       <c r="C74" s="0">
-        <v>0.85193243600887114</v>
+        <v>0.87313595765875851</v>
       </c>
       <c r="D74" s="0">
-        <v>0.99796565599233289</v>
+        <v>0.9994228540250677</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>222</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.0026220009192291852</v>
+        <v>0.0014027322701998701</v>
       </c>
       <c r="B75" s="0">
-        <v>0.97814753946627131</v>
+        <v>0.9875570576062811</v>
       </c>
       <c r="C75" s="0">
-        <v>0.87739834361150215</v>
+        <v>0.88586607101100723</v>
       </c>
       <c r="D75" s="0">
-        <v>0.99868899954038548</v>
+        <v>0.99929863386489992</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>223</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.0018986573711765274</v>
-      </c>
-      <c r="B76" s="0">
-        <v>0.91647844513213106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B76" s="0"/>
       <c r="C76" s="0">
-        <v>0.97537240412495851</v>
+        <v>1</v>
       </c>
       <c r="D76" s="0">
-        <v>0.99905067131441172</v>
+        <v>1</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>223</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.0030863932103171532</v>
+        <v>0.00064785591225852319</v>
       </c>
       <c r="B77" s="0">
-        <v>0.94708535532142257</v>
+        <v>0.98562941033512119</v>
       </c>
       <c r="C77" s="0">
-        <v>0.93859536287970158</v>
+        <v>0.95427049498485217</v>
       </c>
       <c r="D77" s="0">
-        <v>0.99845680339484144</v>
+        <v>0.99967607204387077</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>224</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.0029765061455535396</v>
-      </c>
-      <c r="B78" s="0">
-        <v>0.89076134699302745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B78" s="0"/>
       <c r="C78" s="0">
-        <v>0.96978461591063725</v>
+        <v>1</v>
       </c>
       <c r="D78" s="0">
-        <v>0.99851174692722311</v>
+        <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>225</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.0099223241783075282</v>
-      </c>
-      <c r="B79" s="0">
-        <v>0.91185377588270322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B79" s="0"/>
       <c r="C79" s="0">
-        <v>0.87760948946491568</v>
+        <v>1</v>
       </c>
       <c r="D79" s="0">
-        <v>0.99503883791084635</v>
+        <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>225</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.0057466157172902039</v>
+        <v>0.0013396666504224919</v>
       </c>
       <c r="B80" s="0">
-        <v>0.96324793485280868</v>
+        <v>0.98996241049846856</v>
       </c>
       <c r="C80" s="0">
-        <v>0.83792469883148391</v>
+        <v>0.86519715120922247</v>
       </c>
       <c r="D80" s="0">
-        <v>0.99712669214135485</v>
+        <v>0.9993301666747888</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>225</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.0067699987291322079</v>
-      </c>
-      <c r="B81" s="0">
-        <v>0.96194030056039903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B81" s="0"/>
       <c r="C81" s="0">
-        <v>0.8153974265777969</v>
+        <v>1</v>
       </c>
       <c r="D81" s="0">
-        <v>0.99661500063543385</v>
+        <v>1</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>225</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.0047604987534984695</v>
+        <v>0.0017065938927636024</v>
       </c>
       <c r="B82" s="0">
-        <v>0.9616906135140092</v>
+        <v>0.98460829368768354</v>
       </c>
       <c r="C82" s="0">
-        <v>0.87099761147945598</v>
+        <v>0.88741882012145323</v>
       </c>
       <c r="D82" s="0">
-        <v>0.99761975062325081</v>
+        <v>0.99914670305361808</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>226</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.0026831554596193703</v>
+        <v>0.0010224274721484068</v>
       </c>
       <c r="B83" s="0">
-        <v>0.96040343862771649</v>
+        <v>0.98160346610883276</v>
       </c>
       <c r="C83" s="0">
-        <v>0.92956170878625566</v>
+        <v>0.94340143806501109</v>
       </c>
       <c r="D83" s="0">
-        <v>0.99865842227019019</v>
+        <v>0.99948878626392568</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>226</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.014157276100327845</v>
+        <v>0.0019359234192267965</v>
       </c>
       <c r="B84" s="0">
-        <v>0.94948400521274867</v>
+        <v>0.99099597899584047</v>
       </c>
       <c r="C84" s="0">
-        <v>0.70578981557755005</v>
+        <v>0.78306128248830897</v>
       </c>
       <c r="D84" s="0">
-        <v>0.99292136194983616</v>
+        <v>0.99903203829038667</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>227</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.018081677621929255</v>
+        <v>0.0022760955501472009</v>
       </c>
       <c r="B85" s="0">
-        <v>0.94493547640265341</v>
+        <v>0.99080823313065414</v>
       </c>
       <c r="C85" s="0">
-        <v>0.65387272682170439</v>
+        <v>0.75010579538209865</v>
       </c>
       <c r="D85" s="0">
-        <v>0.99095916118903538</v>
+        <v>0.99886195222492624</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>228</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.009155981344043022</v>
+        <v>0.0014581535724284755</v>
       </c>
       <c r="B86" s="0">
-        <v>0.94416644287156914</v>
+        <v>0.98551092938973173</v>
       </c>
       <c r="C86" s="0">
-        <v>0.82694078238989155</v>
+        <v>0.89790580117553109</v>
       </c>
       <c r="D86" s="0">
-        <v>0.99542200932797853</v>
+        <v>0.99927092321378574</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.0075774297702213703</v>
+        <v>0.00064785591225852319</v>
       </c>
       <c r="B87" s="0">
-        <v>0.94677361287194939</v>
+        <v>0.98926497179820905</v>
       </c>
       <c r="C87" s="0">
-        <v>0.85011770875181547</v>
+        <v>0.93900284696399683</v>
       </c>
       <c r="D87" s="0">
-        <v>0.99621128511488943</v>
+        <v>0.99967607204387077</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.0055039086351166572</v>
-      </c>
-      <c r="B88" s="0">
-        <v>0.92737097066584318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B88" s="0"/>
       <c r="C88" s="0">
-        <v>0.91874527198007594</v>
+        <v>1</v>
       </c>
       <c r="D88" s="0">
-        <v>0.99724804568244163</v>
+        <v>1</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.0035182971518228352</v>
-      </c>
-      <c r="B89" s="0">
-        <v>0.92381740565871118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B89" s="0"/>
       <c r="C89" s="0">
-        <v>0.95031165360689618</v>
+        <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.99824085142408858</v>
+        <v>1</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.0083915495891657092</v>
+        <v>0.0012230908078037016</v>
       </c>
       <c r="B90" s="0">
-        <v>0.95968478729322615</v>
+        <v>0.99304011182535157</v>
       </c>
       <c r="C90" s="0">
-        <v>0.78353040480264069</v>
+        <v>0.82304414374256174</v>
       </c>
       <c r="D90" s="0">
-        <v>0.99580422520541723</v>
+        <v>0.99938845459609826</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.0065378025835882234</v>
+        <v>0.0019932558008425947</v>
       </c>
       <c r="B91" s="0">
-        <v>0.96913032739399041</v>
+        <v>0.99050527001162314</v>
       </c>
       <c r="C91" s="0">
-        <v>0.78171770602390012</v>
+        <v>0.78807785943168918</v>
       </c>
       <c r="D91" s="0">
-        <v>0.99673109870820586</v>
+        <v>0.99900337209957857</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>229</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.0076863612952913869</v>
-      </c>
-      <c r="B92" s="0">
-        <v>0.93513104387480062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B92" s="0"/>
       <c r="C92" s="0">
-        <v>0.87388212251369579</v>
+        <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.99615681935235434</v>
+        <v>1</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>230</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.0050911154874829076</v>
-      </c>
-      <c r="B93" s="0">
-        <v>0.95436846116749974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B93" s="0"/>
       <c r="C93" s="0">
-        <v>0.88336470097178343</v>
+        <v>1</v>
       </c>
       <c r="D93" s="0">
-        <v>0.99745444225625857</v>
+        <v>1</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>231</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.0079844896796935402</v>
+        <v>0.0017696595125409806</v>
       </c>
       <c r="B94" s="0">
-        <v>0.94745191844189736</v>
+        <v>0.9845748134545026</v>
       </c>
       <c r="C94" s="0">
-        <v>0.84013290311972255</v>
+        <v>0.88350814893761487</v>
       </c>
       <c r="D94" s="0">
-        <v>0.99600775516015327</v>
+        <v>0.99911517024372942</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>232</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.0023028506615679067</v>
-      </c>
-      <c r="B95" s="0">
-        <v>0.91396760624632101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B95" s="0"/>
       <c r="C95" s="0">
-        <v>0.97093520164752678</v>
+        <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.99884857466921617</v>
+        <v>1</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>233</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.005586085048765968</v>
+        <v>0.001718060369086762</v>
       </c>
       <c r="B96" s="0">
-        <v>0.95856238641722435</v>
+        <v>0.98531909216629265</v>
       </c>
       <c r="C96" s="0">
-        <v>0.85963800648896049</v>
+        <v>0.88125804339439395</v>
       </c>
       <c r="D96" s="0">
-        <v>0.99720695747561705</v>
+        <v>0.99914096981545675</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>233</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.013692883809239878</v>
+        <v>0.0017677484331537873</v>
       </c>
       <c r="B97" s="0">
-        <v>0.92909251542282634</v>
+        <v>0.98440846679259131</v>
       </c>
       <c r="C97" s="0">
-        <v>0.79338546501049789</v>
+        <v>0.88485663371590717</v>
       </c>
       <c r="D97" s="0">
-        <v>0.99315355809537997</v>
+        <v>0.99911612578342313</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>234</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.010745999394187834</v>
+        <v>0.0024098711072507309</v>
       </c>
       <c r="B98" s="0">
-        <v>0.97323269858762496</v>
+        <v>0.99351066678724376</v>
       </c>
       <c r="C98" s="0">
-        <v>0.58790953056297512</v>
+        <v>0.62623711902589874</v>
       </c>
       <c r="D98" s="0">
-        <v>0.99462700030290607</v>
+        <v>0.99879506444637478</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>235</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.013628862649768902</v>
-      </c>
-      <c r="B99" s="0">
-        <v>0.96771997961561407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B99" s="0"/>
       <c r="C99" s="0">
-        <v>0.56434950891864577</v>
+        <v>1</v>
       </c>
       <c r="D99" s="0">
-        <v>0.99318556867511543</v>
+        <v>1</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>236</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.0049477845334434112</v>
+        <v>0.0013511331267456515</v>
       </c>
       <c r="B100" s="0">
-        <v>0.97655162337620582</v>
+        <v>0.99327038988239325</v>
       </c>
       <c r="C100" s="0">
-        <v>0.7840691447342345</v>
+        <v>0.7978763380310967</v>
       </c>
       <c r="D100" s="0">
-        <v>0.99752610773327843</v>
+        <v>0.99932443343662714</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>237</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.0070346832242584771</v>
+        <v>0.0021614307869156041</v>
       </c>
       <c r="B101" s="0">
-        <v>0.9675017373686956</v>
+        <v>0.98841260498395045</v>
       </c>
       <c r="C101" s="0">
-        <v>0.77655144043829105</v>
+        <v>0.81131030724166153</v>
       </c>
       <c r="D101" s="0">
-        <v>0.99648265838787076</v>
+        <v>0.99891928460654222</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>238</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.0060753213718874486</v>
+        <v>0.0012938007451298531</v>
       </c>
       <c r="B102" s="0">
-        <v>0.96220909469302707</v>
+        <v>0.99009098208030322</v>
       </c>
       <c r="C102" s="0">
-        <v>0.83320012127747967</v>
+        <v>0.86813986375040264</v>
       </c>
       <c r="D102" s="0">
-        <v>0.99696233931405631</v>
+        <v>0.99935309962743502</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>239</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.0034877198816277428</v>
+        <v>0.0014677089693644419</v>
       </c>
       <c r="B103" s="0">
-        <v>0.97137113837618905</v>
+        <v>0.98702326406975105</v>
       </c>
       <c r="C103" s="0">
-        <v>0.87469913642649244</v>
+        <v>0.8854313523074423</v>
       </c>
       <c r="D103" s="0">
-        <v>0.99825614005918617</v>
+        <v>0.99926614551531778</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>239</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.0053395558078180349</v>
+        <v>0.0011447365529287769</v>
       </c>
       <c r="B104" s="0">
-        <v>0.96752847772435357</v>
+        <v>0.99210272208563199</v>
       </c>
       <c r="C104" s="0">
-        <v>0.83025084332419397</v>
+        <v>0.8539032664961751</v>
       </c>
       <c r="D104" s="0">
-        <v>0.99733022209609101</v>
+        <v>0.99942763172353566</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>240</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.0031399034331585653</v>
+        <v>0.0011886913788342224</v>
       </c>
       <c r="B105" s="0">
-        <v>0.9778842481718083</v>
+        <v>0.99092749227310939</v>
       </c>
       <c r="C105" s="0">
-        <v>0.85489407079053281</v>
+        <v>0.86779146325098622</v>
       </c>
       <c r="D105" s="0">
-        <v>0.99843004828342063</v>
+        <v>0.99940565431058281</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>241</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.0075888962465445299</v>
+        <v>0.003436120738173524</v>
       </c>
       <c r="B106" s="0">
-        <v>0.95746913540390477</v>
+        <v>0.97993700536042727</v>
       </c>
       <c r="C106" s="0">
-        <v>0.81403601289080352</v>
+        <v>0.82530909314385936</v>
       </c>
       <c r="D106" s="0">
-        <v>0.99620555187672788</v>
+        <v>0.99828193963091327</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>242</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.0061383869916648275</v>
+        <v>0.0022264074860801754</v>
       </c>
       <c r="B107" s="0">
-        <v>0.97348688944508333</v>
+        <v>0.99019929926310768</v>
       </c>
       <c r="C107" s="0">
-        <v>0.76237659089500542</v>
+        <v>0.77061035543014134</v>
       </c>
       <c r="D107" s="0">
-        <v>0.99693080650416765</v>
+        <v>0.99888679625695997</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>243</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.0092400688370795261</v>
+        <v>0.0035718073746642473</v>
       </c>
       <c r="B108" s="0">
-        <v>0.96666453154439791</v>
+        <v>0.98754332232776765</v>
       </c>
       <c r="C108" s="0">
-        <v>0.71366099959446083</v>
+        <v>0.70970258658955965</v>
       </c>
       <c r="D108" s="0">
-        <v>0.99537996558146036</v>
+        <v>0.998214096312668</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>244</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.0090241168663266862</v>
+        <v>0.0033291002924907003</v>
       </c>
       <c r="B109" s="0">
-        <v>0.969943583355377</v>
+        <v>0.98895748740464651</v>
       </c>
       <c r="C109" s="0">
-        <v>0.69081803869840019</v>
+        <v>0.69520165703425063</v>
       </c>
       <c r="D109" s="0">
-        <v>0.99548794156683651</v>
+        <v>0.99833544985375455</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>245</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.0051771140599066057</v>
+        <v>0.0017409933217330815</v>
       </c>
       <c r="B110" s="0">
-        <v>0.97978031075211425</v>
+        <v>0.9928780308904892</v>
       </c>
       <c r="C110" s="0">
-        <v>0.73880648242267299</v>
+        <v>0.7538081100423174</v>
       </c>
       <c r="D110" s="0">
-        <v>0.99741144297004669</v>
+        <v>0.99912950333913342</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>246</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.003569896295277054</v>
+        <v>0.0015269524303674336</v>
       </c>
       <c r="B111" s="0">
-        <v>0.98415672499133466</v>
+        <v>0.99309347562802641</v>
       </c>
       <c r="C111" s="0">
-        <v>0.77111719434097137</v>
+        <v>0.77738697808092727</v>
       </c>
       <c r="D111" s="0">
-        <v>0.99821505185236159</v>
+        <v>0.99923652378481642</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>246</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.0072487241156241247</v>
+        <v>0.0021365867548820911</v>
       </c>
       <c r="B112" s="0">
-        <v>0.97119773427628242</v>
+        <v>0.99114079174950898</v>
       </c>
       <c r="C112" s="0">
-        <v>0.74113180959466163</v>
+        <v>0.75669668003825896</v>
       </c>
       <c r="D112" s="0">
-        <v>0.99637563794218786</v>
+        <v>0.99893170662255903</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>247</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.0091750921379149548</v>
+        <v>0.0023563608844093188</v>
       </c>
       <c r="B113" s="0">
-        <v>0.96492176781580619</v>
+        <v>0.9898692854137322</v>
       </c>
       <c r="C113" s="0">
-        <v>0.72934824270589182</v>
+        <v>0.76505346848214828</v>
       </c>
       <c r="D113" s="0">
-        <v>0.9954124539310425</v>
+        <v>0.99882181955779525</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>247</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.002895285271597825</v>
+        <v>0.0011906024582214157</v>
       </c>
       <c r="B114" s="0">
-        <v>0.97860309077479546</v>
+        <v>0.99034838198903274</v>
       </c>
       <c r="C114" s="0">
-        <v>0.86179985000462778</v>
+        <v>0.87545300534206583</v>
       </c>
       <c r="D114" s="0">
-        <v>0.99855235736420123</v>
+        <v>0.99940469877088933</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>248</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.0022722733913728144</v>
+        <v>0.00098038372563015452</v>
       </c>
       <c r="B115" s="0">
-        <v>0.97942194530979565</v>
+        <v>0.99056991884171919</v>
       </c>
       <c r="C115" s="0">
-        <v>0.88731072284296442</v>
+        <v>0.89505713223725669</v>
       </c>
       <c r="D115" s="0">
-        <v>0.99886386330431354</v>
+        <v>0.99950980813718493</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>248</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.0079233351393033537</v>
+        <v>0.0027423989206223623</v>
       </c>
       <c r="B116" s="0">
-        <v>0.95932582973447522</v>
+        <v>0.98392701669563964</v>
       </c>
       <c r="C116" s="0">
-        <v>0.79733927761690493</v>
+        <v>0.82664347252741854</v>
       </c>
       <c r="D116" s="0">
-        <v>0.99603833243034834</v>
+        <v>0.99862880053968883</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>248</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.0035718073746642473</v>
+        <v>0.0016110399234039383</v>
       </c>
       <c r="B117" s="0">
-        <v>0.97561732861840678</v>
+        <v>0.98813448714204655</v>
       </c>
       <c r="C117" s="0">
-        <v>0.84995136695961759</v>
+        <v>0.86261656268012743</v>
       </c>
       <c r="D117" s="0">
-        <v>0.998214096312668</v>
+        <v>0.99919448003829792</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>249</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.0063581611211920549</v>
+        <v>0.0014180209052974165</v>
       </c>
       <c r="B118" s="0">
-        <v>0.9458995492162916</v>
+        <v>0.98496276093913793</v>
       </c>
       <c r="C118" s="0">
-        <v>0.87615716078869899</v>
+        <v>0.90428337394988634</v>
       </c>
       <c r="D118" s="0">
-        <v>0.99682091943940399</v>
+        <v>0.9992909895473514</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>250</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.0067709542688258045</v>
+        <v>0.0019722339275834687</v>
       </c>
       <c r="B119" s="0">
-        <v>0.96271571701025194</v>
+        <v>0.98736289915808062</v>
       </c>
       <c r="C119" s="0">
-        <v>0.81167144565350713</v>
+        <v>0.84196469451521427</v>
       </c>
       <c r="D119" s="0">
-        <v>0.99661452286558705</v>
+        <v>0.99901388303620819</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>251</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.010485137057835952</v>
+        <v>0.0013568663649072314</v>
       </c>
       <c r="B120" s="0">
-        <v>0.94736337978603957</v>
+        <v>0.99054252025080569</v>
       </c>
       <c r="C120" s="0">
-        <v>0.79042627698682755</v>
+        <v>0.85517479018068654</v>
       </c>
       <c r="D120" s="0">
-        <v>0.99475743147108198</v>
+        <v>0.99932156681754647</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>252</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.0067002443314996525</v>
+        <v>0.0010358050278587597</v>
       </c>
       <c r="B121" s="0">
-        <v>0.96178078712484172</v>
+        <v>0.9927075987102072</v>
       </c>
       <c r="C121" s="0">
-        <v>0.81803375613625962</v>
+        <v>0.85692631708557965</v>
       </c>
       <c r="D121" s="0">
-        <v>0.9966498778342503</v>
+        <v>0.99948209748607075</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>252</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.011193191970791062</v>
+        <v>0.0017964146239616867</v>
       </c>
       <c r="B122" s="0">
-        <v>0.94519982802589275</v>
+        <v>0.98938343387479077</v>
       </c>
       <c r="C122" s="0">
-        <v>0.78467740863640445</v>
+        <v>0.82899818110532375</v>
       </c>
       <c r="D122" s="0">
-        <v>0.99440340401460448</v>
+        <v>0.99910179268801902</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>253</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.0091808253760765346</v>
+        <v>0.0015861958913704255</v>
       </c>
       <c r="B123" s="0">
-        <v>0.94800353484427502</v>
+        <v>0.98836274557764436</v>
       </c>
       <c r="C123" s="0">
-        <v>0.81433712543656422</v>
+        <v>0.86211304498896979</v>
       </c>
       <c r="D123" s="0">
-        <v>0.99540958731196172</v>
+        <v>0.99920690205431473</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>254</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.0053433779665924214</v>
+        <v>0.0012651345543219538</v>
       </c>
       <c r="B124" s="0">
-        <v>0.96766277397371447</v>
+        <v>0.9909422478426414</v>
       </c>
       <c r="C124" s="0">
-        <v>0.82944595492613971</v>
+        <v>0.85906223642931823</v>
       </c>
       <c r="D124" s="0">
-        <v>0.99732831101670383</v>
+        <v>0.99936743272283901</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>255</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.004932495898345865</v>
+        <v>0.0022531625975008816</v>
       </c>
       <c r="B125" s="0">
-        <v>0.97330585968277328</v>
+        <v>0.98817591837184648</v>
       </c>
       <c r="C125" s="0">
-        <v>0.81031360739515845</v>
+        <v>0.80719482325469316</v>
       </c>
       <c r="D125" s="0">
-        <v>0.99753375205082695</v>
+        <v>0.99887341870124957</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>255</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.010096232402542118</v>
+        <v>0.0021423199930436709</v>
       </c>
       <c r="B126" s="0">
-        <v>0.96229624573572881</v>
+        <v>0.99139928168490077</v>
       </c>
       <c r="C126" s="0">
-        <v>0.72222779451644059</v>
+        <v>0.74877609853190863</v>
       </c>
       <c r="D126" s="0">
-        <v>0.9949518837987289</v>
+        <v>0.99892884000347815</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>256</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.0089132742618694746</v>
+        <v>0.0020104555153273346</v>
       </c>
       <c r="B127" s="0">
-        <v>0.97300716437794432</v>
+        <v>0.99390337575837784</v>
       </c>
       <c r="C127" s="0">
-        <v>0.66095728319061142</v>
+        <v>0.66822822190468589</v>
       </c>
       <c r="D127" s="0">
-        <v>0.99554336286906531</v>
+        <v>0.99899477224233646</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>256</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.0045330803064224691</v>
+        <v>0.0019091683078060904</v>
       </c>
       <c r="B128" s="0">
-        <v>0.9707341285652068</v>
+        <v>0.9868906581233774</v>
       </c>
       <c r="C128" s="0">
-        <v>0.84059441102822341</v>
+        <v>0.85246029255272793</v>
       </c>
       <c r="D128" s="0">
-        <v>0.99773345984678874</v>
+        <v>0.99904541584609707</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>257</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.003193413655999977</v>
+        <v>0.0011829581406726426</v>
       </c>
       <c r="B129" s="0">
-        <v>0.97410423753075226</v>
+        <v>0.98950625181102503</v>
       </c>
       <c r="C129" s="0">
-        <v>0.87349878346950638</v>
+        <v>0.88608864066998005</v>
       </c>
       <c r="D129" s="0">
-        <v>0.99840329317200016</v>
+        <v>0.9994085209296637</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>257</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.0058498140041986415</v>
+        <v>0.0024098711072507309</v>
       </c>
       <c r="B130" s="0">
-        <v>0.98469057328482945</v>
+        <v>0.99357344368945011</v>
       </c>
       <c r="C130" s="0">
-        <v>0.61207904646307743</v>
+        <v>0.6226095531829513</v>
       </c>
       <c r="D130" s="0">
-        <v>0.99707509299790065</v>
+        <v>0.99879506444637467</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>258</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.0089170964206438611</v>
+        <v>0.0027653318732686815</v>
       </c>
       <c r="B131" s="0">
-        <v>0.97761672104202602</v>
+        <v>0.99294527605296523</v>
       </c>
       <c r="C131" s="0">
-        <v>0.59278037427978747</v>
+        <v>0.6052593128711875</v>
       </c>
       <c r="D131" s="0">
-        <v>0.99554145178967801</v>
+        <v>0.99861733406336561</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>258</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.011474120640708475</v>
-      </c>
-      <c r="B132" s="0">
-        <v>0.93775192187284551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B132" s="0"/>
       <c r="C132" s="0">
-        <v>0.80432862078862144</v>
+        <v>1</v>
       </c>
       <c r="D132" s="0">
-        <v>0.99426293967964563</v>
+        <v>1</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>259</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.017685128649086647</v>
+        <v>0.00025608463788390001</v>
       </c>
       <c r="B133" s="0">
-        <v>0.90946439452459393</v>
+        <v>0.96831232160803837</v>
       </c>
       <c r="C133" s="0">
-        <v>0.78728870127562267</v>
+        <v>0.99166245995666857</v>
       </c>
       <c r="D133" s="0">
-        <v>0.99115743567545667</v>
+        <v>0.99987195768105819</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>260</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.0079395793140944974</v>
-      </c>
-      <c r="B134" s="0">
-        <v>0.9066708857277076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B134" s="0"/>
       <c r="C134" s="0">
-        <v>0.90705269082502971</v>
+        <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.9960302103429528</v>
+        <v>1</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>261</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.0059396347353967253</v>
+        <v>0.0022722733913728144</v>
       </c>
       <c r="B135" s="0">
-        <v>0.90353480618795012</v>
+        <v>0.92823119746960614</v>
       </c>
       <c r="C135" s="0">
-        <v>0.93252281705593987</v>
+        <v>0.96607187124114691</v>
       </c>
       <c r="D135" s="0">
-        <v>0.9970301826323017</v>
+        <v>0.99886386330431354</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>261</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.013341245201996314</v>
+        <v>0.0024328040598970502</v>
       </c>
       <c r="B136" s="0">
-        <v>0.96404681543661797</v>
+        <v>0.99262289544560678</v>
       </c>
       <c r="C136" s="0">
-        <v>0.61576404549999109</v>
+        <v>0.66779548397590682</v>
       </c>
       <c r="D136" s="0">
-        <v>0.99332937739900196</v>
+        <v>0.99878359797005145</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>262</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.009720705302958637</v>
-      </c>
-      <c r="B137" s="0">
-        <v>0.95383863290728088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B137" s="0"/>
       <c r="C137" s="0">
-        <v>0.77979282018704277</v>
+        <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.99513964734852056</v>
+        <v>1</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>263</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.0070318166051776872</v>
+        <v>0.0028895520334362448</v>
       </c>
       <c r="B138" s="0">
-        <v>0.97103474055627437</v>
+        <v>0.98783102792673361</v>
       </c>
       <c r="C138" s="0">
-        <v>0.75025037208934542</v>
+        <v>0.759666363858719</v>
       </c>
       <c r="D138" s="0">
-        <v>0.99648409169741115</v>
+        <v>0.998555223983282</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>264</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.0065722020125577024</v>
+        <v>0.0033291002924907003</v>
       </c>
       <c r="B139" s="0">
-        <v>0.97389980999465131</v>
+        <v>0.98667671140638424</v>
       </c>
       <c r="C139" s="0">
-        <v>0.74166431872547334</v>
+        <v>0.74681121917082305</v>
       </c>
       <c r="D139" s="0">
-        <v>0.99671389899372109</v>
+        <v>0.99833544985375466</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>264</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.01652319238167313</v>
-      </c>
-      <c r="B140" s="0">
-        <v>0.93182395351884906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B140" s="0"/>
       <c r="C140" s="0">
-        <v>0.74138915235264136</v>
+        <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.99173840380916345</v>
+        <v>1</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>264</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.0048828078342788399</v>
-      </c>
-      <c r="B141" s="0">
-        <v>0.90222255576444277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B141" s="0"/>
       <c r="C141" s="0">
-        <v>0.94520305623224332</v>
+        <v>1</v>
       </c>
       <c r="D141" s="0">
-        <v>0.99755859608286057</v>
+        <v>1</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>264</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.030132944237570101</v>
-      </c>
-      <c r="B142" s="0">
-        <v>0.93079275324815591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B142" s="0"/>
       <c r="C142" s="0">
-        <v>0.53537347508502386</v>
+        <v>1</v>
       </c>
       <c r="D142" s="0">
-        <v>0.98493352788121491</v>
+        <v>1</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>264</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.017442421566913099</v>
-      </c>
-      <c r="B143" s="0">
-        <v>0.95744747711771983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B143" s="0"/>
       <c r="C143" s="0">
-        <v>0.57295846917015147</v>
+        <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.99127878921654333</v>
+        <v>1</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>264</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.01768130649031226</v>
-      </c>
-      <c r="B144" s="0">
-        <v>0.93941329303961618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B144" s="0"/>
       <c r="C144" s="0">
-        <v>0.69079657192394461</v>
+        <v>1</v>
       </c>
       <c r="D144" s="0">
-        <v>0.99115934675484385</v>
+        <v>1</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>265</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.016323484585711433</v>
-      </c>
-      <c r="B145" s="0">
-        <v>0.95301499193985628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B145" s="0"/>
       <c r="C145" s="0">
-        <v>0.63652397006358863</v>
+        <v>1</v>
       </c>
       <c r="D145" s="0">
-        <v>0.99183825770714429</v>
+        <v>1</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>266</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.0091846475348509211</v>
+        <v>0.0031437255919329519</v>
       </c>
       <c r="B146" s="0">
-        <v>0.95944083035312888</v>
+        <v>0.98502924216455101</v>
       </c>
       <c r="C146" s="0">
-        <v>0.7644491291306903</v>
+        <v>0.78687507837729598</v>
       </c>
       <c r="D146" s="0">
-        <v>0.99540767623257453</v>
+        <v>0.99842813720403356</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>267</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.0068493085237007287</v>
+        <v>0.0018021478621232665</v>
       </c>
       <c r="B147" s="0">
-        <v>0.97475415136146937</v>
+        <v>0.99300498450666841</v>
       </c>
       <c r="C147" s="0">
-        <v>0.72189325574630026</v>
+        <v>0.74056795183655177</v>
       </c>
       <c r="D147" s="0">
-        <v>0.99657534573814965</v>
+        <v>0.99909892606893824</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>268</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.0093356228064391915</v>
+        <v>0.0022646290738240413</v>
       </c>
       <c r="B148" s="0">
-        <v>0.94572920042910769</v>
+        <v>0.97735661089501824</v>
       </c>
       <c r="C148" s="0">
-        <v>0.81873227059261589</v>
+        <v>0.89772768498796907</v>
       </c>
       <c r="D148" s="0">
-        <v>0.99533218859678052</v>
+        <v>0.99886768546308791</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>269</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.0060294554665948101</v>
+        <v>0.0023888492339916045</v>
       </c>
       <c r="B149" s="0">
-        <v>0.97333344959892554</v>
+        <v>0.98900261935531064</v>
       </c>
       <c r="C149" s="0">
-        <v>0.76790133305816788</v>
+        <v>0.78039702010068102</v>
       </c>
       <c r="D149" s="0">
-        <v>0.99698527226670275</v>
+        <v>0.99880557538300407</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>270</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.0031322591156097918</v>
+        <v>0.0011198925208952644</v>
       </c>
       <c r="B150" s="0">
-        <v>0.95175070635112202</v>
+        <v>0.97934174502781535</v>
       </c>
       <c r="C150" s="0">
-        <v>0.93195931419725997</v>
+        <v>0.94467094926794992</v>
       </c>
       <c r="D150" s="0">
-        <v>0.99843387044219511</v>
+        <v>0.99944005373955225</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>271</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.0030156832729910017</v>
+        <v>0.00048541416434709408</v>
       </c>
       <c r="B151" s="0">
-        <v>0.95578248981240832</v>
+        <v>0.98776775216351231</v>
       </c>
       <c r="C151" s="0">
-        <v>0.92879230114586475</v>
+        <v>0.95983166830577871</v>
       </c>
       <c r="D151" s="0">
-        <v>0.99849215836350447</v>
+        <v>0.99975729291782645</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>271</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.0070117502716121579</v>
+        <v>0.0034552315320454568</v>
       </c>
       <c r="B152" s="0">
-        <v>0.980137661786735</v>
+        <v>0.99024165247398555</v>
       </c>
       <c r="C152" s="0">
-        <v>0.64002005073834811</v>
+        <v>0.64247713339106716</v>
       </c>
       <c r="D152" s="0">
-        <v>0.99649412486419398</v>
+        <v>0.99827238423397724</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>272</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.0081956639519783978</v>
+        <v>0.0024003157103147641</v>
       </c>
       <c r="B153" s="0">
-        <v>0.9803596928720284</v>
+        <v>0.9941047875097051</v>
       </c>
       <c r="C153" s="0">
-        <v>0.57458353188181988</v>
+        <v>0.59044188481967452</v>
       </c>
       <c r="D153" s="0">
-        <v>0.99590216802401077</v>
+        <v>0.99879984214484263</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>273</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.0035985624860849531</v>
-      </c>
-      <c r="B154" s="0">
-        <v>0.92633633531601256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B154" s="0"/>
       <c r="C154" s="0">
-        <v>0.94756313191646391</v>
+        <v>1</v>
       </c>
       <c r="D154" s="0">
-        <v>0.99820071875695759</v>
+        <v>1</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>274</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.0064900255989083916</v>
+        <v>0.0019569452924859225</v>
       </c>
       <c r="B155" s="0">
-        <v>0.95403165272097457</v>
+        <v>0.98203614986038201</v>
       </c>
       <c r="C155" s="0">
-        <v>0.85236743227601397</v>
+        <v>0.88910891852347151</v>
       </c>
       <c r="D155" s="0">
-        <v>0.99675498720054567</v>
+        <v>0.99902152735375704</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>275</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.010843464442934691</v>
+        <v>0.0025895125696468995</v>
       </c>
       <c r="B156" s="0">
-        <v>0.96982997905404544</v>
+        <v>0.99218141648650904</v>
       </c>
       <c r="C156" s="0">
-        <v>0.62986221986753699</v>
+        <v>0.6662174859003489</v>
       </c>
       <c r="D156" s="0">
-        <v>0.99457826777853264</v>
+        <v>0.99870524371517644</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>276</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.0076949611525337566</v>
-      </c>
-      <c r="B157" s="0">
-        <v>0.95057725668632864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B157" s="0"/>
       <c r="C157" s="0">
-        <v>0.83666748827429616</v>
+        <v>1</v>
       </c>
       <c r="D157" s="0">
-        <v>0.99615251942373317</v>
+        <v>1</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>277</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.0065014920752315512</v>
+        <v>0.0024251597423482771</v>
       </c>
       <c r="B158" s="0">
-        <v>0.98041015941617515</v>
+        <v>0.99227403578756479</v>
       </c>
       <c r="C158" s="0">
-        <v>0.6616599716884346</v>
+        <v>0.68368336520255757</v>
       </c>
       <c r="D158" s="0">
-        <v>0.99674925396238434</v>
+        <v>0.99878742012882582</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>277</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.0077370048990520086</v>
+        <v>0.0022846954073895706</v>
       </c>
       <c r="B159" s="0">
-        <v>0.97522875715115565</v>
+        <v>0.99199209515669584</v>
       </c>
       <c r="C159" s="0">
-        <v>0.67998467669672835</v>
+        <v>0.71241550993120173</v>
       </c>
       <c r="D159" s="0">
-        <v>0.99613149755047403</v>
+        <v>0.99885765229630519</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>278</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.0074971644359592519</v>
+        <v>0.0019053461490317039</v>
       </c>
       <c r="B160" s="0">
-        <v>0.97906360637175704</v>
+        <v>0.99432425508492361</v>
       </c>
       <c r="C160" s="0">
-        <v>0.63446659554825213</v>
+        <v>0.66239853419901273</v>
       </c>
       <c r="D160" s="0">
-        <v>0.99625141778202053</v>
+        <v>0.99904732692548404</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>279</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.01426429654601067</v>
+        <v>0.0031695251636600611</v>
       </c>
       <c r="B161" s="0">
-        <v>0.95725722226772614</v>
+        <v>0.98774912757408173</v>
       </c>
       <c r="C161" s="0">
-        <v>0.65221503814646331</v>
+        <v>0.73812219818814595</v>
       </c>
       <c r="D161" s="0">
-        <v>0.99286785172699465</v>
+        <v>0.99841523741816984</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>279</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.0030175943523781949</v>
+        <v>0.0011409143941543904</v>
       </c>
       <c r="B162" s="0">
-        <v>0.97589462010423933</v>
+        <v>0.99016914842577941</v>
       </c>
       <c r="C162" s="0">
-        <v>0.87180807258032134</v>
+        <v>0.88280590457036889</v>
       </c>
       <c r="D162" s="0">
-        <v>0.99849120282381087</v>
+        <v>0.99942954280292284</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>280</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.0052726680292662694</v>
+        <v>0.0021786305014003435</v>
       </c>
       <c r="B163" s="0">
-        <v>0.97290967994579214</v>
+        <v>0.98829151289860195</v>
       </c>
       <c r="C163" s="0">
-        <v>0.80012221545801598</v>
+        <v>0.81175335669652982</v>
       </c>
       <c r="D163" s="0">
-        <v>0.99736366598536697</v>
+        <v>0.99891068474929978</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>281</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.0058995020682656666</v>
+        <v>0.0028341307312076398</v>
       </c>
       <c r="B164" s="0">
-        <v>0.9743283257433426</v>
+        <v>0.98780340567254921</v>
       </c>
       <c r="C164" s="0">
-        <v>0.76432940746282507</v>
+        <v>0.76480323684434326</v>
       </c>
       <c r="D164" s="0">
-        <v>0.99705024896586714</v>
+        <v>0.99858293463439618</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>282</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.0066658449025301736</v>
+        <v>0.0026869776183937569</v>
       </c>
       <c r="B165" s="0">
-        <v>0.96466485103865263</v>
+        <v>0.98632041743969701</v>
       </c>
       <c r="C165" s="0">
-        <v>0.8047322944998706</v>
+        <v>0.80089775590452905</v>
       </c>
       <c r="D165" s="0">
-        <v>0.99666707754873485</v>
+        <v>0.99865651119080301</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>283</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.0021671640250771839</v>
+        <v>0.0006172786420634306</v>
       </c>
       <c r="B166" s="0">
-        <v>0.97083270462254645</v>
+        <v>0.99069393269141159</v>
       </c>
       <c r="C166" s="0">
-        <v>0.92353636762169289</v>
+        <v>0.93305232897234314</v>
       </c>
       <c r="D166" s="0">
-        <v>0.99891641798746134</v>
+        <v>0.99969136067896824</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>283</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.0013014450626786262</v>
+        <v>0.00060772324512746423</v>
       </c>
       <c r="B167" s="0">
-        <v>0.98234883654727823</v>
+        <v>0.9911894617659518</v>
       </c>
       <c r="C167" s="0">
-        <v>0.92496884474892316</v>
+        <v>0.93041578803089164</v>
       </c>
       <c r="D167" s="0">
-        <v>0.99934927746866054</v>
+        <v>0.99969613837743621</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>284</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="168">
@@ -4017,381 +6900,375 @@
         <v>1</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>285</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.0026583114275858578</v>
-      </c>
-      <c r="B169" s="0">
-        <v>0.93974439792652509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B169" s="0"/>
       <c r="C169" s="0">
-        <v>0.95323150573956361</v>
+        <v>1</v>
       </c>
       <c r="D169" s="0">
-        <v>0.998670844286207</v>
+        <v>1</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>286</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.0037820261072555083</v>
+        <v>0.0015173970334314672</v>
       </c>
       <c r="B170" s="0">
-        <v>0.98151847230052136</v>
+        <v>0.99221735316244508</v>
       </c>
       <c r="C170" s="0">
-        <v>0.79159410220179538</v>
+        <v>0.80351305782241389</v>
       </c>
       <c r="D170" s="0">
-        <v>0.99810898694637229</v>
+        <v>0.99924130148328438</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>287</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.0048159200557270753</v>
+        <v>0.0014581535724284755</v>
       </c>
       <c r="B171" s="0">
-        <v>0.97060113841354623</v>
+        <v>0.99013286125517141</v>
       </c>
       <c r="C171" s="0">
-        <v>0.83139412531483214</v>
+        <v>0.85076520818323076</v>
       </c>
       <c r="D171" s="0">
-        <v>0.99759203997213641</v>
+        <v>0.99927092321378574</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>288</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.0054847978412447245</v>
+        <v>0.0028150199373357071</v>
       </c>
       <c r="B172" s="0">
-        <v>0.96256829902373708</v>
+        <v>0.98026019861402836</v>
       </c>
       <c r="C172" s="0">
-        <v>0.84801713661302391</v>
+        <v>0.85458660951914189</v>
       </c>
       <c r="D172" s="0">
-        <v>0.99725760107937766</v>
+        <v>0.99859249003133221</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>289</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.0046133456406845866</v>
+        <v>0.0023372500905373861</v>
       </c>
       <c r="B173" s="0">
-        <v>0.96912087296376981</v>
+        <v>0.98432671991296083</v>
       </c>
       <c r="C173" s="0">
-        <v>0.84600780578925139</v>
+        <v>0.8485449865226149</v>
       </c>
       <c r="D173" s="0">
-        <v>0.99769332717965775</v>
+        <v>0.99883137495473129</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>289</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.0060447441016923563</v>
+        <v>0.0024652924094793359</v>
       </c>
       <c r="B174" s="0">
-        <v>0.98678143266271146</v>
+        <v>0.99450206131087526</v>
       </c>
       <c r="C174" s="0">
-        <v>0.53669986995956842</v>
+        <v>0.54913774752308497</v>
       </c>
       <c r="D174" s="0">
-        <v>0.99697762794915379</v>
+        <v>0.99876735379526016</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>290</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.0070805491295511157</v>
+        <v>0.0025283580292567143</v>
       </c>
       <c r="B175" s="0">
-        <v>0.98319984691385598</v>
+        <v>0.99380204718371012</v>
       </c>
       <c r="C175" s="0">
-        <v>0.57151216776903258</v>
+        <v>0.58954365619879012</v>
       </c>
       <c r="D175" s="0">
-        <v>0.99645972543522432</v>
+        <v>0.99873582098537161</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>290</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.0053080229979293458</v>
+        <v>0.0018327251323183591</v>
       </c>
       <c r="B176" s="0">
-        <v>0.97655075641980593</v>
+        <v>0.99136058612638356</v>
       </c>
       <c r="C176" s="0">
-        <v>0.76835792512509415</v>
+        <v>0.78603527837327569</v>
       </c>
       <c r="D176" s="0">
-        <v>0.99734598850103517</v>
+        <v>0.99908363743384088</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>291</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.0053854217131106734</v>
+        <v>0.0012746899512579202</v>
       </c>
       <c r="B177" s="0">
-        <v>0.9679028034388315</v>
+        <v>0.99067933203801029</v>
       </c>
       <c r="C177" s="0">
-        <v>0.82685878081918218</v>
+        <v>0.86196742832679651</v>
       </c>
       <c r="D177" s="0">
-        <v>0.99730728914344469</v>
+        <v>0.99936265502437105</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>291</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.0049305848189586717</v>
+        <v>0.0015384189066905934</v>
       </c>
       <c r="B178" s="0">
-        <v>0.97008333075695263</v>
+        <v>0.98972974846938355</v>
       </c>
       <c r="C178" s="0">
-        <v>0.83028310542395156</v>
+        <v>0.84867025464292833</v>
       </c>
       <c r="D178" s="0">
-        <v>0.99753470759052054</v>
+        <v>0.99923079054665476</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>291</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.0059071463858144397</v>
+        <v>0.0012899785863554666</v>
       </c>
       <c r="B179" s="0">
-        <v>0.95828780982722894</v>
+        <v>0.98872361354763327</v>
       </c>
       <c r="C179" s="0">
-        <v>0.85251096015799455</v>
+        <v>0.88431523480423468</v>
       </c>
       <c r="D179" s="0">
-        <v>0.99704642680709266</v>
+        <v>0.9993550107068222</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>292</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.0035603408983410877</v>
+        <v>0.0027271102855248156</v>
       </c>
       <c r="B180" s="0">
-        <v>0.94556303219749771</v>
+        <v>0.96151270058527927</v>
       </c>
       <c r="C180" s="0">
-        <v>0.93104933709171767</v>
+        <v>0.92642291863510251</v>
       </c>
       <c r="D180" s="0">
-        <v>0.99821982955082933</v>
+        <v>0.99863644485723768</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>293</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.0050786934714661513</v>
+        <v>0.0034724312465301966</v>
       </c>
       <c r="B181" s="0">
-        <v>0.96082616807487375</v>
+        <v>0.97377687430919291</v>
       </c>
       <c r="C181" s="0">
-        <v>0.86530204779646647</v>
+        <v>0.86412096342268674</v>
       </c>
       <c r="D181" s="0">
-        <v>0.99746065326426692</v>
+        <v>0.99826378437673502</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>293</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.0082482186351262119</v>
+        <v>0.0012823342688066933</v>
       </c>
       <c r="B182" s="0">
-        <v>0.94725178666689669</v>
+        <v>0.98556875340231875</v>
       </c>
       <c r="C182" s="0">
-        <v>0.83545018384862835</v>
+        <v>0.9098611328144558</v>
       </c>
       <c r="D182" s="0">
-        <v>0.99587589068243676</v>
+        <v>0.99935883286559657</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>294</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.0051599143454218663</v>
+        <v>0.0016741055431813165</v>
       </c>
       <c r="B183" s="0">
-        <v>0.96351881052343646</v>
+        <v>0.98541708890389157</v>
       </c>
       <c r="C183" s="0">
-        <v>0.85342630178042511</v>
+        <v>0.88352956458458121</v>
       </c>
       <c r="D183" s="0">
-        <v>0.99742004282728913</v>
+        <v>0.99916294722840937</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>294</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.012980051197816783</v>
-      </c>
-      <c r="B184" s="0">
-        <v>0.95402483663069981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B184" s="0"/>
       <c r="C184" s="0">
-        <v>0.70486096834146406</v>
+        <v>1</v>
       </c>
       <c r="D184" s="0">
-        <v>0.99350997440109168</v>
+        <v>1</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>295</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.009053738596828181</v>
+        <v>0.0030883042897043465</v>
       </c>
       <c r="B185" s="0">
-        <v>0.97598778161583311</v>
+        <v>0.99147215824041113</v>
       </c>
       <c r="C185" s="0">
-        <v>0.61398107784180866</v>
+        <v>0.63477751904256996</v>
       </c>
       <c r="D185" s="0">
-        <v>0.99547313070158605</v>
+        <v>0.99845584785514796</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>296</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.0040209110306546692</v>
+        <v>0.0010510936629563061</v>
       </c>
       <c r="B186" s="0">
-        <v>0.95734903388540882</v>
+        <v>0.98625371544288321</v>
       </c>
       <c r="C186" s="0">
-        <v>0.90172046301605946</v>
+        <v>0.92248617404579381</v>
       </c>
       <c r="D186" s="0">
-        <v>0.9979895444846727</v>
+        <v>0.9994744531685219</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>297</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.0035851849303746002</v>
+        <v>0.0015059305571083076</v>
       </c>
       <c r="B187" s="0">
-        <v>0.97344560696747773</v>
+        <v>0.98765779971313872</v>
       </c>
       <c r="C187" s="0">
-        <v>0.86141479425426082</v>
+        <v>0.87648158122081332</v>
       </c>
       <c r="D187" s="0">
-        <v>0.99820740753481285</v>
+        <v>0.99924703472144571</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>297</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.0024557370125433695</v>
+        <v>0.0009670061699198015</v>
       </c>
       <c r="B188" s="0">
-        <v>0.97809606778085156</v>
+        <v>0.99097702073587002</v>
       </c>
       <c r="C188" s="0">
-        <v>0.88543631391458411</v>
+        <v>0.89186243472576154</v>
       </c>
       <c r="D188" s="0">
-        <v>0.99877213149372834</v>
+        <v>0.99951649691504008</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>298</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.0025799571727109331</v>
+        <v>0.0010568269011178859</v>
       </c>
       <c r="B189" s="0">
-        <v>0.98007898858653508</v>
+        <v>0.99146198493901405</v>
       </c>
       <c r="C189" s="0">
-        <v>0.86791735235901846</v>
+        <v>0.87516529760856632</v>
       </c>
       <c r="D189" s="0">
-        <v>0.99871002141364451</v>
+        <v>0.99947158654944113</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>299</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>7.6443175487731348e-05</v>
-      </c>
-      <c r="B190" s="0">
-        <v>0.13039655934085467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B190" s="0"/>
       <c r="C190" s="0">
-        <v>0.99983565688031395</v>
+        <v>1</v>
       </c>
       <c r="D190" s="0">
-        <v>0.9999617784122562</v>
+        <v>1</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>300</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="191">
@@ -4406,687 +7283,677 @@
         <v>1</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>301</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.0070996599234230493</v>
+        <v>0.0021862748189491166</v>
       </c>
       <c r="B192" s="0">
-        <v>0.96432794398737498</v>
+        <v>0.99002030112432204</v>
       </c>
       <c r="C192" s="0">
-        <v>0.79392493297285638</v>
+        <v>0.77874628183997896</v>
       </c>
       <c r="D192" s="0">
-        <v>0.99645017003828862</v>
+        <v>0.9989068625905253</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>302</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.0034036323885912384</v>
+        <v>0.0018365472910927456</v>
       </c>
       <c r="B193" s="0">
-        <v>0.9841330962388819</v>
+        <v>0.99109812940052822</v>
       </c>
       <c r="C193" s="0">
-        <v>0.78209651141399683</v>
+        <v>0.79185655963529455</v>
       </c>
       <c r="D193" s="0">
-        <v>0.99829818380570445</v>
+        <v>0.99908172635445369</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>303</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.010210897165773714</v>
+        <v>0.0029487954944392367</v>
       </c>
       <c r="B194" s="0">
-        <v>0.96131986168068462</v>
+        <v>0.98796986913600271</v>
       </c>
       <c r="C194" s="0">
-        <v>0.72591041148493163</v>
+        <v>0.75194240884601971</v>
       </c>
       <c r="D194" s="0">
-        <v>0.99489455141711303</v>
+        <v>0.99852560225278042</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>304</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.0060103446727228773</v>
+        <v>0.0019244569429036366</v>
       </c>
       <c r="B195" s="0">
-        <v>0.975692003818035</v>
+        <v>0.99211315089239349</v>
       </c>
       <c r="C195" s="0">
-        <v>0.74676785556335512</v>
+        <v>0.75407090857896941</v>
       </c>
       <c r="D195" s="0">
-        <v>0.99699482766363845</v>
+        <v>0.99903777152854822</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>304</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.012089488203384713</v>
+        <v>0.0010262496309227933</v>
       </c>
       <c r="B196" s="0">
-        <v>0.92694013903837325</v>
+        <v>0.98922809335001105</v>
       </c>
       <c r="C196" s="0">
-        <v>0.82258293072196542</v>
+        <v>0.90370386738343689</v>
       </c>
       <c r="D196" s="0">
-        <v>0.99395525589830769</v>
+        <v>0.99948687518453871</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>305</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.0032354574025182294</v>
+        <v>0.00068607750000238888</v>
       </c>
       <c r="B197" s="0">
-        <v>0.95718387402235638</v>
+        <v>0.9845038881307363</v>
       </c>
       <c r="C197" s="0">
-        <v>0.92120868317440718</v>
+        <v>0.95504022263679922</v>
       </c>
       <c r="D197" s="0">
-        <v>0.99838227129874091</v>
+        <v>0.99965696124999881</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>306</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.0062377631197988778</v>
+        <v>0.0025417355849670672</v>
       </c>
       <c r="B198" s="0">
-        <v>0.97924281097089949</v>
+        <v>0.99160027409041329</v>
       </c>
       <c r="C198" s="0">
-        <v>0.69329017126039338</v>
+        <v>0.69486728149845511</v>
       </c>
       <c r="D198" s="0">
-        <v>0.99688111844010052</v>
+        <v>0.99872913220751647</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>307</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.0058555472423602213</v>
+        <v>0.0018613913231262584</v>
       </c>
       <c r="B199" s="0">
-        <v>0.97762603926813463</v>
+        <v>0.99236548840887173</v>
       </c>
       <c r="C199" s="0">
-        <v>0.73246614882056149</v>
+        <v>0.75432931596402075</v>
       </c>
       <c r="D199" s="0">
-        <v>0.99707222637881987</v>
+        <v>0.99906930433843688</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>308</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.0055688853342812285</v>
+        <v>0.0018174364972208129</v>
       </c>
       <c r="B200" s="0">
-        <v>0.97181324455421358</v>
+        <v>0.98990519689586942</v>
       </c>
       <c r="C200" s="0">
-        <v>0.79689113161615888</v>
+        <v>0.8181490220282398</v>
       </c>
       <c r="D200" s="0">
-        <v>0.99721555733285938</v>
+        <v>0.99909128175138973</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>309</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.0035956958670041632</v>
+        <v>0.0017409933217330815</v>
       </c>
       <c r="B201" s="0">
-        <v>0.98515356809108678</v>
+        <v>0.99258905206049919</v>
       </c>
       <c r="C201" s="0">
-        <v>0.7542246383979363</v>
+        <v>0.76334022531124968</v>
       </c>
       <c r="D201" s="0">
-        <v>0.99820215206649798</v>
+        <v>0.99912950333913353</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>309</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.011693894770235703</v>
+        <v>0.0027099105710400762</v>
       </c>
       <c r="B202" s="0">
-        <v>0.96234388169896068</v>
+        <v>0.99026647177158245</v>
       </c>
       <c r="C202" s="0">
-        <v>0.67789850269900098</v>
+        <v>0.71888753814835438</v>
       </c>
       <c r="D202" s="0">
-        <v>0.99415305261488218</v>
+        <v>0.99864504471448001</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>310</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.011210391685275801</v>
+        <v>0.0027576875557199084</v>
       </c>
       <c r="B203" s="0">
-        <v>0.96900214544468655</v>
+        <v>0.99153838344530953</v>
       </c>
       <c r="C203" s="0">
-        <v>0.62726471388794802</v>
+        <v>0.67134439581679017</v>
       </c>
       <c r="D203" s="0">
-        <v>0.99439480415736214</v>
+        <v>0.99862115622213998</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>310</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.010216630403935294</v>
-      </c>
-      <c r="B204" s="0">
-        <v>0.97046225121262497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B204" s="0"/>
       <c r="C204" s="0">
-        <v>0.64400389462931218</v>
+        <v>1</v>
       </c>
       <c r="D204" s="0">
-        <v>0.99489168479803247</v>
+        <v>1</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>311</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.018655956977780837</v>
-      </c>
-      <c r="B205" s="0">
-        <v>0.93282823338990051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B205" s="0"/>
       <c r="C205" s="0">
-        <v>0.70395699279753321</v>
+        <v>1</v>
       </c>
       <c r="D205" s="0">
-        <v>0.99067202151110956</v>
+        <v>1</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>311</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.0085597245752387172</v>
-      </c>
-      <c r="B206" s="0">
-        <v>0.91457575851055606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B206" s="0"/>
       <c r="C206" s="0">
-        <v>0.89131102069340351</v>
+        <v>1</v>
       </c>
       <c r="D206" s="0">
-        <v>0.99572013771238077</v>
+        <v>1</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>312</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.004257884874666636</v>
-      </c>
-      <c r="B207" s="0">
-        <v>0.94262478888686596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B207" s="0"/>
       <c r="C207" s="0">
-        <v>0.92154901668799427</v>
+        <v>1</v>
       </c>
       <c r="D207" s="0">
-        <v>0.99787105756266681</v>
+        <v>1</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>313</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.0045158805919377296</v>
+        <v>0.0013301112534865255</v>
       </c>
       <c r="B208" s="0">
-        <v>0.97342837375378699</v>
+        <v>0.99145560376224418</v>
       </c>
       <c r="C208" s="0">
-        <v>0.82555328152078034</v>
+        <v>0.84300106209520109</v>
       </c>
       <c r="D208" s="0">
-        <v>0.99774205970403107</v>
+        <v>0.99933494437325687</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>314</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.0036482505501519787</v>
+        <v>0.001171491664349483</v>
       </c>
       <c r="B209" s="0">
-        <v>0.97785157655020272</v>
+        <v>0.99251766418454013</v>
       </c>
       <c r="C209" s="0">
-        <v>0.83164676406618876</v>
+        <v>0.8422622401890355</v>
       </c>
       <c r="D209" s="0">
-        <v>0.99817587472492397</v>
+        <v>0.99941425416782526</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>315</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.0028455972075307995</v>
+        <v>0.00086954112117294412</v>
       </c>
       <c r="B210" s="0">
-        <v>0.97031681480202669</v>
+        <v>0.99050131739587532</v>
       </c>
       <c r="C210" s="0">
-        <v>0.90129687162682259</v>
+        <v>0.90758787603426505</v>
       </c>
       <c r="D210" s="0">
-        <v>0.99857720139623463</v>
+        <v>0.99956522943941351</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>316</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.00384700280642008</v>
+        <v>0.0010950484888617516</v>
       </c>
       <c r="B211" s="0">
-        <v>0.96865531836334462</v>
+        <v>0.9894464367717839</v>
       </c>
       <c r="C211" s="0">
-        <v>0.87343556246036236</v>
+        <v>0.89514513029481202</v>
       </c>
       <c r="D211" s="0">
-        <v>0.99807649859678982</v>
+        <v>0.99945247575556906</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>317</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.0073844107521148479</v>
+        <v>0.0014122876671358367</v>
       </c>
       <c r="B212" s="0">
-        <v>0.95825145579387627</v>
+        <v>0.99029016147486404</v>
       </c>
       <c r="C212" s="0">
-        <v>0.81579183732252381</v>
+        <v>0.8531405664654218</v>
       </c>
       <c r="D212" s="0">
-        <v>0.9963077946239427</v>
+        <v>0.99929385616643196</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>318</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.0069075964450101236</v>
+        <v>0.0018613913231262584</v>
       </c>
       <c r="B213" s="0">
-        <v>0.96258409926730026</v>
+        <v>0.98879483312211136</v>
       </c>
       <c r="C213" s="0">
-        <v>0.8085235166849839</v>
+        <v>0.83202305502211904</v>
       </c>
       <c r="D213" s="0">
-        <v>0.99654620177749498</v>
+        <v>0.99906930433843677</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>319</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.0019674562291154855</v>
-      </c>
-      <c r="B214" s="0">
-        <v>0.9611219757284738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B214" s="0"/>
       <c r="C214" s="0">
-        <v>0.94743054498995172</v>
+        <v>1</v>
       </c>
       <c r="D214" s="0">
-        <v>0.99901627188544229</v>
+        <v>1</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>320</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.0015709072562728793</v>
+        <v>0.00069372181755116198</v>
       </c>
       <c r="B215" s="0">
-        <v>0.97422168594879888</v>
+        <v>0.98748011556000481</v>
       </c>
       <c r="C215" s="0">
-        <v>0.93749246055248037</v>
+        <v>0.94389715714126887</v>
       </c>
       <c r="D215" s="0">
-        <v>0.99921454637186347</v>
+        <v>0.99965313909122444</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>321</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.01026345184892153</v>
+        <v>0.0028991074303722116</v>
       </c>
       <c r="B216" s="0">
-        <v>0.97097801950771212</v>
+        <v>0.99137633219015142</v>
       </c>
       <c r="C216" s="0">
-        <v>0.63619779770689722</v>
+        <v>0.66092897432248432</v>
       </c>
       <c r="D216" s="0">
-        <v>0.99486827407553924</v>
+        <v>0.99855044628481393</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>322</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.0096987278900059152</v>
+        <v>0.003871846838453593</v>
       </c>
       <c r="B217" s="0">
-        <v>0.96128464886356857</v>
+        <v>0.98523036268596997</v>
       </c>
       <c r="C217" s="0">
-        <v>0.73988158499820011</v>
+        <v>0.73399406404485323</v>
       </c>
       <c r="D217" s="0">
-        <v>0.99515063605499698</v>
+        <v>0.99806407658077334</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>323</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.0039998891573955432</v>
+        <v>0.0018308140529311658</v>
       </c>
       <c r="B218" s="0">
-        <v>0.98662609411429225</v>
+        <v>0.99377488302016825</v>
       </c>
       <c r="C218" s="0">
-        <v>0.69693451093923997</v>
+        <v>0.70407138938888225</v>
       </c>
       <c r="D218" s="0">
-        <v>0.99800005542130221</v>
+        <v>0.99908459297353458</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>324</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.0084240379387479948</v>
+        <v>0.0028436861281436062</v>
       </c>
       <c r="B219" s="0">
-        <v>0.96817869112237953</v>
+        <v>0.98801565786408885</v>
       </c>
       <c r="C219" s="0">
-        <v>0.72691746575107363</v>
+        <v>0.75988094373440829</v>
       </c>
       <c r="D219" s="0">
-        <v>0.99578798103062593</v>
+        <v>0.99857815693592811</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>325</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.0087298106406989203</v>
+        <v>0.0026258230780035717</v>
       </c>
       <c r="B220" s="0">
-        <v>0.9610995479258726</v>
+        <v>0.98637819672475002</v>
       </c>
       <c r="C220" s="0">
-        <v>0.76693228098699606</v>
+        <v>0.80461488482702415</v>
       </c>
       <c r="D220" s="0">
-        <v>0.9956350946796505</v>
+        <v>0.9986870884609983</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>326</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.0074704093245385461</v>
+        <v>0.0020352995473608471</v>
       </c>
       <c r="B221" s="0">
-        <v>0.96530059515291355</v>
+        <v>0.98915000049159973</v>
       </c>
       <c r="C221" s="0">
-        <v>0.77729613387044383</v>
+        <v>0.81038362265931163</v>
       </c>
       <c r="D221" s="0">
-        <v>0.9962647953377306</v>
+        <v>0.99898235022631954</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>327</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.0045292581476480825</v>
+        <v>0.0013931768732639038</v>
       </c>
       <c r="B222" s="0">
-        <v>0.976947884853961</v>
+        <v>0.992956474309867</v>
       </c>
       <c r="C222" s="0">
-        <v>0.79901218593535428</v>
+        <v>0.80081337940549557</v>
       </c>
       <c r="D222" s="0">
-        <v>0.99773537092617581</v>
+        <v>0.99930341156336799</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>328</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.0051025819638060672</v>
+        <v>0.0019149015459676703</v>
       </c>
       <c r="B223" s="0">
-        <v>0.97358079109796203</v>
+        <v>0.98998751027647602</v>
       </c>
       <c r="C223" s="0">
-        <v>0.80178436445661805</v>
+        <v>0.80683747827505081</v>
       </c>
       <c r="D223" s="0">
-        <v>0.9974487090180969</v>
+        <v>0.9990425492270163</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>328</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.003060593638590044</v>
+        <v>0.0010950484888617516</v>
       </c>
       <c r="B224" s="0">
-        <v>0.97058084032991043</v>
+        <v>0.98779351050124897</v>
       </c>
       <c r="C224" s="0">
-        <v>0.89291474703146312</v>
+        <v>0.90919579706575149</v>
       </c>
       <c r="D224" s="0">
-        <v>0.99846970318070483</v>
+        <v>0.99945247575556906</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>329</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.003892868711712719</v>
+        <v>0.00093451782033751574</v>
       </c>
       <c r="B225" s="0">
-        <v>0.96478861657901593</v>
+        <v>0.98822681584960137</v>
       </c>
       <c r="C225" s="0">
-        <v>0.88556517794202116</v>
+        <v>0.91968954389479307</v>
       </c>
       <c r="D225" s="0">
-        <v>0.99805356564414371</v>
+        <v>0.99953274108983126</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>329</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.0041441756511286353</v>
+        <v>0.0014409538579437358</v>
       </c>
       <c r="B226" s="0">
-        <v>0.97389766206795736</v>
+        <v>0.99020778009832078</v>
       </c>
       <c r="C226" s="0">
-        <v>0.83710654390671146</v>
+        <v>0.85140819165192816</v>
       </c>
       <c r="D226" s="0">
-        <v>0.99792791217443566</v>
+        <v>0.99927952307102819</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>330</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.0040018002367827364</v>
+        <v>0.0012938007451298531</v>
       </c>
       <c r="B227" s="0">
-        <v>0.9769022252811812</v>
+        <v>0.9919522045089022</v>
       </c>
       <c r="C227" s="0">
-        <v>0.82275941860909485</v>
+        <v>0.83794325800068337</v>
       </c>
       <c r="D227" s="0">
-        <v>0.99799909988160862</v>
+        <v>0.99935309962743513</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>330</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.0049248515807970919</v>
+        <v>0.0016760166225685098</v>
       </c>
       <c r="B228" s="0">
-        <v>0.97404711858552528</v>
+        <v>0.99031730974559551</v>
       </c>
       <c r="C228" s="0">
-        <v>0.80533813861527015</v>
+        <v>0.82523268544790584</v>
       </c>
       <c r="D228" s="0">
-        <v>0.99753757420960143</v>
+        <v>0.99916199168871578</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>330</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.0046076124025230068</v>
+        <v>0.0012574902367731807</v>
       </c>
       <c r="B229" s="0">
-        <v>0.97680803869740707</v>
+        <v>0.9928793878430634</v>
       </c>
       <c r="C229" s="0">
-        <v>0.79674079556784605</v>
+        <v>0.82214547718162034</v>
       </c>
       <c r="D229" s="0">
-        <v>0.99769619379873842</v>
+        <v>0.99937125488161338</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>331</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.010835820125385918</v>
+        <v>0.0029296847005673039</v>
       </c>
       <c r="B230" s="0">
-        <v>0.95443224000770288</v>
+        <v>0.98499172762709486</v>
       </c>
       <c r="C230" s="0">
-        <v>0.75148583472931962</v>
+        <v>0.80187423869655639</v>
       </c>
       <c r="D230" s="0">
-        <v>0.99458208993730701</v>
+        <v>0.99853515764971634</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>331</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.0080399109819221451</v>
+        <v>0.0021633418663027973</v>
       </c>
       <c r="B231" s="0">
-        <v>0.95852249397578149</v>
+        <v>0.98614161092800445</v>
       </c>
       <c r="C231" s="0">
-        <v>0.79818686976408371</v>
+        <v>0.84173792276569082</v>
       </c>
       <c r="D231" s="0">
-        <v>0.99598004450903888</v>
+        <v>0.99891832906684852</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="232">
@@ -5101,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="233">
@@ -5116,534 +7983,520 @@
         <v>1</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.002849419366305186</v>
+        <v>0.00075296527855415378</v>
       </c>
       <c r="B234" s="0">
-        <v>0.96034801070802178</v>
+        <v>0.98735957623396553</v>
       </c>
       <c r="C234" s="0">
-        <v>0.92529800841437659</v>
+        <v>0.93967956088371629</v>
       </c>
       <c r="D234" s="0">
-        <v>0.99857529031684733</v>
+        <v>0.99962351736072297</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>332</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.003239279561292616</v>
+        <v>0.0010128720752124404</v>
       </c>
       <c r="B235" s="0">
-        <v>0.96847672381410943</v>
+        <v>0.9887494693145904</v>
       </c>
       <c r="C235" s="0">
-        <v>0.89401287244864047</v>
+        <v>0.90895932732549412</v>
       </c>
       <c r="D235" s="0">
-        <v>0.99838036021935361</v>
+        <v>0.99949356396239375</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>333</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.0058631915599089944</v>
+        <v>0.0018021478621232665</v>
       </c>
       <c r="B236" s="0">
-        <v>0.96996548201539068</v>
+        <v>0.98986572529143457</v>
       </c>
       <c r="C236" s="0">
-        <v>0.79895608119054307</v>
+        <v>0.82037408077888396</v>
       </c>
       <c r="D236" s="0">
-        <v>0.9970684042200455</v>
+        <v>0.99909892606893824</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>333</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.0089400293732901804</v>
+        <v>0.00308448213092996</v>
       </c>
       <c r="B237" s="0">
-        <v>0.97214218412556619</v>
+        <v>0.9906555930800659</v>
       </c>
       <c r="C237" s="0">
-        <v>0.67022351661277058</v>
+        <v>0.66683643908000623</v>
       </c>
       <c r="D237" s="0">
-        <v>0.99552998531335479</v>
+        <v>0.99845775893453514</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>333</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.0072315244011393852</v>
-      </c>
-      <c r="B238" s="0">
-        <v>0.93880925477514054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B238" s="0"/>
       <c r="C238" s="0">
-        <v>0.87464073572723211</v>
+        <v>1</v>
       </c>
       <c r="D238" s="0">
-        <v>0.99638423779943031</v>
+        <v>1</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>334</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.005480975682470338</v>
-      </c>
-      <c r="B239" s="0">
-        <v>0.96671092242472667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B239" s="0"/>
       <c r="C239" s="0">
-        <v>0.82990119645023563</v>
+        <v>1</v>
       </c>
       <c r="D239" s="0">
-        <v>0.99725951215876485</v>
+        <v>1</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>335</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.0081211318558778584</v>
+        <v>0.00450441411561457</v>
       </c>
       <c r="B240" s="0">
-        <v>0.96941543561567756</v>
+        <v>0.98369092580991135</v>
       </c>
       <c r="C240" s="0">
-        <v>0.72641441304423782</v>
+        <v>0.71932520636827701</v>
       </c>
       <c r="D240" s="0">
-        <v>0.99593943407206098</v>
+        <v>0.99774779294219273</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>336</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.0056730391608832628</v>
+        <v>0.003046260543186094</v>
       </c>
       <c r="B241" s="0">
-        <v>0.96737168701473275</v>
+        <v>0.98319950848207616</v>
       </c>
       <c r="C241" s="0">
-        <v>0.8204905423192046</v>
+        <v>0.81564329170236416</v>
       </c>
       <c r="D241" s="0">
-        <v>0.99716348041955838</v>
+        <v>0.99847686972840688</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>337</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.0026888886977809502</v>
+        <v>0.00098611696379173434</v>
       </c>
       <c r="B242" s="0">
-        <v>0.9860976842068897</v>
+        <v>0.99473159741169292</v>
       </c>
       <c r="C242" s="0">
-        <v>0.80390533471438996</v>
+        <v>0.81183915139265539</v>
       </c>
       <c r="D242" s="0">
-        <v>0.99865555565110964</v>
+        <v>0.99950694151810404</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>337</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.0029487954944392367</v>
+        <v>0.0015728183356600726</v>
       </c>
       <c r="B243" s="0">
-        <v>0.98788161485279502</v>
+        <v>0.99347175437716484</v>
       </c>
       <c r="C243" s="0">
-        <v>0.75372752032843893</v>
+        <v>0.75750453916113814</v>
       </c>
       <c r="D243" s="0">
-        <v>0.99852560225278042</v>
+        <v>0.99921359083216987</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>338</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.0095573080153536112</v>
+        <v>0.0031781250209024308</v>
       </c>
       <c r="B244" s="0">
-        <v>0.95105563610663246</v>
+        <v>0.98426005293390872</v>
       </c>
       <c r="C244" s="0">
-        <v>0.79526521754860735</v>
+        <v>0.7949173814913455</v>
       </c>
       <c r="D244" s="0">
-        <v>0.99522134599232326</v>
+        <v>0.9984109374895489</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>339</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.006893263349606174</v>
+        <v>0.0023276946936014197</v>
       </c>
       <c r="B245" s="0">
-        <v>0.96594036692351171</v>
+        <v>0.98905587718475996</v>
       </c>
       <c r="C245" s="0">
-        <v>0.79076618530525156</v>
+        <v>0.78498870920098107</v>
       </c>
       <c r="D245" s="0">
-        <v>0.99655336832519703</v>
+        <v>0.99883615265319936</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>340</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.0052287132033608241</v>
+        <v>0.0015881069707576188</v>
       </c>
       <c r="B246" s="0">
-        <v>0.96804118035396247</v>
+        <v>0.98851859614240933</v>
       </c>
       <c r="C246" s="0">
-        <v>0.83119079399453855</v>
+        <v>0.86009448573365266</v>
       </c>
       <c r="D246" s="0">
-        <v>0.9973856433983197</v>
+        <v>0.99920594651462114</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>340</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.0042827289067001485</v>
+        <v>0.0015881069707576188</v>
       </c>
       <c r="B247" s="0">
-        <v>0.96200776827943857</v>
+        <v>0.98297374060361309</v>
       </c>
       <c r="C247" s="0">
-        <v>0.88300917609279173</v>
+        <v>0.90514043556263879</v>
       </c>
       <c r="D247" s="0">
-        <v>0.99785863554664989</v>
+        <v>0.99920594651462114</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>340</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.011777026723578611</v>
+        <v>0.002329605772988613</v>
       </c>
       <c r="B248" s="0">
-        <v>0.93585563800280136</v>
+        <v>0.98056419690462626</v>
       </c>
       <c r="C248" s="0">
-        <v>0.80475977184369285</v>
+        <v>0.87781425644723843</v>
       </c>
       <c r="D248" s="0">
-        <v>0.99411148663821081</v>
+        <v>0.99883519711350577</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>341</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.010461248565496035</v>
+        <v>0.0026907997771681434</v>
       </c>
       <c r="B249" s="0">
-        <v>0.95810434847619885</v>
+        <v>0.98686818428756817</v>
       </c>
       <c r="C249" s="0">
-        <v>0.73995047149309001</v>
+        <v>0.79240953086658039</v>
       </c>
       <c r="D249" s="0">
-        <v>0.99476937571725199</v>
+        <v>0.99865460011141605</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>342</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.0065855795682680553</v>
+        <v>0.0013817103969407441</v>
       </c>
       <c r="B250" s="0">
-        <v>0.95989984665806871</v>
+        <v>0.99038676102854417</v>
       </c>
       <c r="C250" s="0">
-        <v>0.82922950138262397</v>
+        <v>0.85489024454126716</v>
       </c>
       <c r="D250" s="0">
-        <v>0.99670721021586584</v>
+        <v>0.99930914480152966</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>343</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.00359091816853618</v>
+        <v>0.0011542919498647433</v>
       </c>
       <c r="B251" s="0">
-        <v>0.97618562030351907</v>
+        <v>0.99169451850987855</v>
       </c>
       <c r="C251" s="0">
-        <v>0.84563416620581611</v>
+        <v>0.8598675061122979</v>
       </c>
       <c r="D251" s="0">
-        <v>0.99820454091573196</v>
+        <v>0.99942285402506759</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>343</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.0033119005780059608</v>
-      </c>
-      <c r="B252" s="0">
-        <v>0.87545719353910567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B252" s="0"/>
       <c r="C252" s="0">
-        <v>0.97010660024742923</v>
+        <v>1</v>
       </c>
       <c r="D252" s="0">
-        <v>0.99834404971099711</v>
+        <v>1</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>344</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.0060657659749514823</v>
-      </c>
-      <c r="B253" s="0">
-        <v>0.93607291735664999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B253" s="0"/>
       <c r="C253" s="0">
-        <v>0.89908532770804817</v>
+        <v>1</v>
       </c>
       <c r="D253" s="0">
-        <v>0.99696711701252427</v>
+        <v>1</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>345</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.012620768273024446</v>
+        <v>0.0040763323328832741</v>
       </c>
       <c r="B254" s="0">
-        <v>0.96139547418903026</v>
+        <v>0.98865947765437934</v>
       </c>
       <c r="C254" s="0">
-        <v>0.66061393846729144</v>
+        <v>0.63649190879097817</v>
       </c>
       <c r="D254" s="0">
-        <v>0.99368961586348781</v>
+        <v>0.99796183383355841</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>346</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.0099987673537952609</v>
+        <v>0.0024270708217354704</v>
       </c>
       <c r="B255" s="0">
-        <v>0.97367322407726353</v>
+        <v>0.99383505206274825</v>
       </c>
       <c r="C255" s="0">
-        <v>0.61030660712382978</v>
+        <v>0.60389004154523818</v>
       </c>
       <c r="D255" s="0">
-        <v>0.99500061632310222</v>
+        <v>0.99878646458913223</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>346</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.006197630452667819</v>
-      </c>
-      <c r="B256" s="0">
-        <v>0.98276245815590502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B256" s="0"/>
       <c r="C256" s="0">
-        <v>0.63429818942750393</v>
+        <v>1</v>
       </c>
       <c r="D256" s="0">
-        <v>0.99690118477366596</v>
+        <v>1</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>347</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.010650445424828171</v>
-      </c>
-      <c r="B257" s="0">
-        <v>0.97076700343375033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B257" s="0"/>
       <c r="C257" s="0">
-        <v>0.62513340438370379</v>
+        <v>1</v>
       </c>
       <c r="D257" s="0">
-        <v>0.99467477728758591</v>
+        <v>1</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>348</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.0052248910445864376</v>
+        <v>0.0022493404387264951</v>
       </c>
       <c r="B258" s="0">
-        <v>0.96013429450235932</v>
+        <v>0.98320750480464392</v>
       </c>
       <c r="C258" s="0">
-        <v>0.86374010866902939</v>
+        <v>0.86380657022933871</v>
       </c>
       <c r="D258" s="0">
-        <v>0.99738755447770677</v>
+        <v>0.99887532978063676</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>348</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.0041355757938862656</v>
+        <v>0.0024748478064153022</v>
       </c>
       <c r="B259" s="0">
-        <v>0.96698874397357437</v>
+        <v>0.97962298646811186</v>
       </c>
       <c r="C259" s="0">
-        <v>0.87060377979171588</v>
+        <v>0.87607835647203436</v>
       </c>
       <c r="D259" s="0">
-        <v>0.99793221210305683</v>
+        <v>0.9987625760967922</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>349</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.0061154540390185082</v>
+        <v>0.0025302691086439076</v>
       </c>
       <c r="B260" s="0">
-        <v>0.95081173591512214</v>
+        <v>0.97899834793107698</v>
       </c>
       <c r="C260" s="0">
-        <v>0.86959444197407865</v>
+        <v>0.87699660609781371</v>
       </c>
       <c r="D260" s="0">
-        <v>0.99694227298049087</v>
+        <v>0.99873486544567802</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>349</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.0049783618036385044</v>
+        <v>0.0025837793314853197</v>
       </c>
       <c r="B261" s="0">
-        <v>0.96045559270783831</v>
+        <v>0.97864448262504389</v>
       </c>
       <c r="C261" s="0">
-        <v>0.86915347952442212</v>
+        <v>0.87643405392958673</v>
       </c>
       <c r="D261" s="0">
-        <v>0.99751081909818073</v>
+        <v>0.99870811033425722</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>350</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.0024920475209000421</v>
+        <v>0.0012422016016756345</v>
       </c>
       <c r="B262" s="0">
-        <v>0.9759303204743226</v>
+        <v>0.98792243884905528</v>
       </c>
       <c r="C262" s="0">
-        <v>0.89397944316552325</v>
+        <v>0.89590731809926361</v>
       </c>
       <c r="D262" s="0">
-        <v>0.99875397623954987</v>
+        <v>0.99937889919916223</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>351</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.0027041773328784964</v>
+        <v>0.0013778882381663576</v>
       </c>
       <c r="B263" s="0">
-        <v>0.97943573227127823</v>
+        <v>0.98950503822018188</v>
       </c>
       <c r="C263" s="0">
-        <v>0.86580429616113463</v>
+        <v>0.86733356192323507</v>
       </c>
       <c r="D263" s="0">
-        <v>0.9986479113335609</v>
+        <v>0.99931105588091684</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>352</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.0014906419220107614</v>
-      </c>
-      <c r="B264" s="0">
-        <v>0.93942932406574864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B264" s="0"/>
       <c r="C264" s="0">
-        <v>0.97390161992464974</v>
+        <v>1</v>
       </c>
       <c r="D264" s="0">
-        <v>0.99925467903899456</v>
+        <v>1</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>352</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="265">
@@ -5658,568 +8511,558 @@
         <v>1</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>353</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.0045684352750855447</v>
+        <v>0.001454331413654089</v>
       </c>
       <c r="B266" s="0">
-        <v>0.97393396618330075</v>
+        <v>0.99144710809499437</v>
       </c>
       <c r="C266" s="0">
-        <v>0.82018851496061773</v>
+        <v>0.82850805560616569</v>
       </c>
       <c r="D266" s="0">
-        <v>0.99771578236245728</v>
+        <v>0.99927283429317293</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.0054064435863697994</v>
+        <v>0.001454331413654089</v>
       </c>
       <c r="B267" s="0">
-        <v>0.96838939052423656</v>
+        <v>0.99017918708426145</v>
       </c>
       <c r="C267" s="0">
-        <v>0.82359022210512578</v>
+        <v>0.85046112056284551</v>
       </c>
       <c r="D267" s="0">
-        <v>0.99729677820681495</v>
+        <v>0.99927283429317293</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.0047127217688186377</v>
+        <v>0.0019282791016780232</v>
       </c>
       <c r="B268" s="0">
-        <v>0.98686019644020506</v>
+        <v>0.99447118380858279</v>
       </c>
       <c r="C268" s="0">
-        <v>0.63664950136730281</v>
+        <v>0.64930654634004226</v>
       </c>
       <c r="D268" s="0">
-        <v>0.99764363911559062</v>
+        <v>0.99903586044916104</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.0038642025209048195</v>
+        <v>0.0022407405814841254</v>
       </c>
       <c r="B269" s="0">
-        <v>0.98803445568440573</v>
+        <v>0.99294922455391998</v>
       </c>
       <c r="C269" s="0">
-        <v>0.67320658099289554</v>
+        <v>0.67996369249799005</v>
       </c>
       <c r="D269" s="0">
-        <v>0.9980678987395476</v>
+        <v>0.99887962970925792</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.0085310583844308181</v>
+        <v>0.0024633813300921426</v>
       </c>
       <c r="B270" s="0">
-        <v>0.96454404030213037</v>
+        <v>0.98860858293658971</v>
       </c>
       <c r="C270" s="0">
-        <v>0.75093172278599685</v>
+        <v>0.78129379387987918</v>
       </c>
       <c r="D270" s="0">
-        <v>0.99573447080778454</v>
+        <v>0.99876830933495397</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.0085339250035116089</v>
+        <v>0.0029077072876145813</v>
       </c>
       <c r="B271" s="0">
-        <v>0.96512190230007466</v>
+        <v>0.98641840791487578</v>
       </c>
       <c r="C271" s="0">
-        <v>0.74686027742294048</v>
+        <v>0.7830089628445206</v>
       </c>
       <c r="D271" s="0">
-        <v>0.99573303749824416</v>
+        <v>0.99854614635619277</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.0069505957312219731</v>
+        <v>0.001240290522288441</v>
       </c>
       <c r="B272" s="0">
-        <v>0.93985569823513504</v>
+        <v>0.9853625105991376</v>
       </c>
       <c r="C272" s="0">
-        <v>0.87753239086671109</v>
+        <v>0.91402741890715966</v>
       </c>
       <c r="D272" s="0">
-        <v>0.99652470213438904</v>
+        <v>0.99937985473885582</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>354</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.0010338939484715664</v>
-      </c>
-      <c r="B273" s="0">
-        <v>0.86047804009629514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B273" s="0"/>
       <c r="C273" s="0">
-        <v>0.99155691534748369</v>
+        <v>1</v>
       </c>
       <c r="D273" s="0">
-        <v>0.99948305302576435</v>
+        <v>1</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>355</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.0011485587117031635</v>
-      </c>
-      <c r="B274" s="0">
-        <v>0.88377921401285509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B274" s="0"/>
       <c r="C274" s="0">
-        <v>0.98897020201611607</v>
+        <v>1</v>
       </c>
       <c r="D274" s="0">
-        <v>0.99942572064414847</v>
+        <v>1</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>355</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.0017887703064129136</v>
+        <v>0.00033634997214601793</v>
       </c>
       <c r="B275" s="0">
-        <v>0.96027050340566811</v>
+        <v>0.98951613423272988</v>
       </c>
       <c r="C275" s="0">
-        <v>0.95319069489453145</v>
+        <v>0.96758113451695638</v>
       </c>
       <c r="D275" s="0">
-        <v>0.99910561484679339</v>
+        <v>0.99983182501392698</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>356</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.0066008682033656023</v>
+        <v>0.0013339334122609121</v>
       </c>
       <c r="B276" s="0">
-        <v>0.96453255396632809</v>
+        <v>0.99203931327784545</v>
       </c>
       <c r="C276" s="0">
-        <v>0.80733208798813971</v>
+        <v>0.83110272767690874</v>
       </c>
       <c r="D276" s="0">
-        <v>0.99669956589831732</v>
+        <v>0.99933303329386969</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>357</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.0056434174303817671</v>
+        <v>0.0017104160515379889</v>
       </c>
       <c r="B277" s="0">
-        <v>0.96842434893600604</v>
+        <v>0.98929719100502922</v>
       </c>
       <c r="C277" s="0">
-        <v>0.81566155605852964</v>
+        <v>0.83848249582542422</v>
       </c>
       <c r="D277" s="0">
-        <v>0.99717829128480917</v>
+        <v>0.99914479197423112</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.011386210988897584</v>
+        <v>0.002020010912263301</v>
       </c>
       <c r="B278" s="0">
-        <v>0.95107630272840893</v>
+        <v>0.98801021408877321</v>
       </c>
       <c r="C278" s="0">
-        <v>0.7560093688296291</v>
+        <v>0.82950642304007993</v>
       </c>
       <c r="D278" s="0">
-        <v>0.99430689450555132</v>
+        <v>0.99898999454386839</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>358</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.0045521911002944018</v>
+        <v>0.0013702439206175845</v>
       </c>
       <c r="B279" s="0">
-        <v>0.97167080743032708</v>
+        <v>0.99031554162785607</v>
       </c>
       <c r="C279" s="0">
-        <v>0.83477947926062812</v>
+        <v>0.85714267598352556</v>
       </c>
       <c r="D279" s="0">
-        <v>0.99772390444985293</v>
+        <v>0.99931487803969121</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>359</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.01039436078694427</v>
+        <v>0.0025302691086439076</v>
       </c>
       <c r="B280" s="0">
-        <v>0.97216428591947179</v>
+        <v>0.99283503756614477</v>
       </c>
       <c r="C280" s="0">
-        <v>0.61629553442573692</v>
+        <v>0.64433134949200199</v>
       </c>
       <c r="D280" s="0">
-        <v>0.99480281960652783</v>
+        <v>0.99873486544567813</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>359</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.012500370271631268</v>
+        <v>0.004005622395557123</v>
       </c>
       <c r="B281" s="0">
-        <v>0.96918879488876231</v>
+        <v>0.98958407972973861</v>
       </c>
       <c r="C281" s="0">
-        <v>0.58194730905467629</v>
+        <v>0.61144311683489261</v>
       </c>
       <c r="D281" s="0">
-        <v>0.99374981486418434</v>
+        <v>0.99799718880222144</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>360</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.006289362263253097</v>
+        <v>0.0022780066295343942</v>
       </c>
       <c r="B282" s="0">
-        <v>0.97490509610416254</v>
+        <v>0.99091889013116552</v>
       </c>
       <c r="C282" s="0">
-        <v>0.74312710757513911</v>
+        <v>0.74687605738859408</v>
       </c>
       <c r="D282" s="0">
-        <v>0.99685531886837331</v>
+        <v>0.99886099668523276</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>360</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.0049344069777330583</v>
+        <v>0.0015938402089191986</v>
       </c>
       <c r="B283" s="0">
-        <v>0.97856683519608978</v>
+        <v>0.99277343320088762</v>
       </c>
       <c r="C283" s="0">
-        <v>0.76486696579207725</v>
+        <v>0.77785580782103847</v>
       </c>
       <c r="D283" s="0">
-        <v>0.99753279651113336</v>
+        <v>0.99920307989554036</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>361</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.005087293328708521</v>
+        <v>0.0018231697353823927</v>
       </c>
       <c r="B284" s="0">
-        <v>0.97717806066608404</v>
+        <v>0.99139704272075413</v>
       </c>
       <c r="C284" s="0">
-        <v>0.77202618463373562</v>
+        <v>0.78625654745686979</v>
       </c>
       <c r="D284" s="0">
-        <v>0.99745635333564575</v>
+        <v>0.99908841513230895</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.0033520332451370195</v>
+        <v>0.0011103371239592978</v>
       </c>
       <c r="B285" s="0">
-        <v>0.9811207122332094</v>
+        <v>0.99307535729328145</v>
       </c>
       <c r="C285" s="0">
-        <v>0.81910837116904367</v>
+        <v>0.83854513190891333</v>
       </c>
       <c r="D285" s="0">
-        <v>0.99832398337743145</v>
+        <v>0.99944483143802032</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.0075764742305277737</v>
+        <v>0.0020486771030712001</v>
       </c>
       <c r="B286" s="0">
-        <v>0.96855517957207971</v>
+        <v>0.99052251411384418</v>
       </c>
       <c r="C286" s="0">
-        <v>0.75153586600158973</v>
+        <v>0.7817930136223783</v>
       </c>
       <c r="D286" s="0">
-        <v>0.99621176288473623</v>
+        <v>0.9989756614484645</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.0039081573468102652</v>
+        <v>0.00128615642758108</v>
       </c>
       <c r="B287" s="0">
-        <v>0.97202208134874823</v>
+        <v>0.98980420890789367</v>
       </c>
       <c r="C287" s="0">
-        <v>0.85641990817669644</v>
+        <v>0.87256967779836769</v>
       </c>
       <c r="D287" s="0">
-        <v>0.99804592132659486</v>
+        <v>0.99935692178620938</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.0035526965807923146</v>
+        <v>0.0012479348398372143</v>
       </c>
       <c r="B288" s="0">
-        <v>0.97379489869765679</v>
+        <v>0.99145547164512049</v>
       </c>
       <c r="C288" s="0">
-        <v>0.86088721578164107</v>
+        <v>0.85270286486964619</v>
       </c>
       <c r="D288" s="0">
-        <v>0.99822365170960381</v>
+        <v>0.99937603258008145</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.0028685301601771187</v>
+        <v>0.0019473898955499561</v>
       </c>
       <c r="B289" s="0">
-        <v>0.94257273859470392</v>
+        <v>0.96322710180623827</v>
       </c>
       <c r="C289" s="0">
-        <v>0.94718902871052968</v>
+        <v>0.94509919777290019</v>
       </c>
       <c r="D289" s="0">
-        <v>0.9985657349199113</v>
+        <v>0.99902630505222501</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.0038087812186762145</v>
+        <v>0.0010300717896971799</v>
       </c>
       <c r="B290" s="0">
-        <v>0.96727033777461935</v>
+        <v>0.99010412219688981</v>
       </c>
       <c r="C290" s="0">
-        <v>0.8798347959952475</v>
+        <v>0.89487999195693069</v>
       </c>
       <c r="D290" s="0">
-        <v>0.99809560939066189</v>
+        <v>0.99948496410515153</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.0034590536908198433</v>
+        <v>0.0010281607103099866</v>
       </c>
       <c r="B291" s="0">
-        <v>0.9715983068695242</v>
+        <v>0.99020405683722479</v>
       </c>
       <c r="C291" s="0">
-        <v>0.87476250700335689</v>
+        <v>0.89401508956252107</v>
       </c>
       <c r="D291" s="0">
-        <v>0.99827047315458994</v>
+        <v>0.99948591964484512</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.0074551206894409999</v>
+        <v>0.0025933347284212861</v>
       </c>
       <c r="B292" s="0">
-        <v>0.97048980742320445</v>
+        <v>0.98989529309307156</v>
       </c>
       <c r="C292" s="0">
-        <v>0.7399717885646927</v>
+        <v>0.74076718089437088</v>
       </c>
       <c r="D292" s="0">
-        <v>0.99627243965527934</v>
+        <v>0.99870333263578948</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.008599857242369776</v>
+        <v>0.0026487560306498914</v>
       </c>
       <c r="B293" s="0">
-        <v>0.96571433638511572</v>
+        <v>0.98848625693967673</v>
       </c>
       <c r="C293" s="0">
-        <v>0.74064456003232171</v>
+        <v>0.76730657149360748</v>
       </c>
       <c r="D293" s="0">
-        <v>0.99570007137881511</v>
+        <v>0.99867562198467497</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.0040275998085098456</v>
-      </c>
-      <c r="B294" s="0">
-        <v>0.94436533116987353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B294" s="0"/>
       <c r="C294" s="0">
-        <v>0.92359491665376559</v>
+        <v>1</v>
       </c>
       <c r="D294" s="0">
-        <v>0.99798620009574501</v>
+        <v>1</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.010205163927612134</v>
-      </c>
-      <c r="B295" s="0">
-        <v>0.89036243897241008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B295" s="0"/>
       <c r="C295" s="0">
-        <v>0.89681807165310967</v>
+        <v>1</v>
       </c>
       <c r="D295" s="0">
-        <v>0.9948974180361938</v>
+        <v>1</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.014261429926929879</v>
+        <v>0.0058192367340035491</v>
       </c>
       <c r="B296" s="0">
-        <v>0.95227908979367359</v>
+        <v>0.98239407850404303</v>
       </c>
       <c r="C296" s="0">
-        <v>0.68709120591924233</v>
+        <v>0.66368738142667749</v>
       </c>
       <c r="D296" s="0">
-        <v>0.99286928503653504</v>
+        <v>0.99709038163299835</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.0076901834540657734</v>
+        <v>0.0031112372423506658</v>
       </c>
       <c r="B297" s="0">
-        <v>0.9791235628343451</v>
+        <v>0.99160298410045378</v>
       </c>
       <c r="C297" s="0">
-        <v>0.62400229438236388</v>
+        <v>0.62638143037210581</v>
       </c>
       <c r="D297" s="0">
-        <v>0.99615490827296727</v>
+        <v>0.99844438137882463</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.0035087417548868688</v>
-      </c>
-      <c r="B298" s="0">
-        <v>0.85823098935567654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B298" s="0"/>
       <c r="C298" s="0">
-        <v>0.97175386054046475</v>
+        <v>1</v>
       </c>
       <c r="D298" s="0">
-        <v>0.99824562912255654</v>
+        <v>1</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>362</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="299">
@@ -6234,41 +9077,37 @@
         <v>1</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>363</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.0090355833426498458</v>
-      </c>
-      <c r="B300" s="0">
-        <v>0.86537582110209943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B300" s="0"/>
       <c r="C300" s="0">
-        <v>0.92392896685351833</v>
+        <v>1</v>
       </c>
       <c r="D300" s="0">
-        <v>0.99548220832867496</v>
+        <v>1</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0.0052573793941687232</v>
-      </c>
-      <c r="B301" s="0">
-        <v>0.93149723944236118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B301" s="0"/>
       <c r="C301" s="0">
-        <v>0.9180232894069762</v>
+        <v>1</v>
       </c>
       <c r="D301" s="0">
-        <v>0.99737131030291559</v>
+        <v>1</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="302">
@@ -6283,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="303">
@@ -6298,58 +9137,52 @@
         <v>1</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0.002606712284131639</v>
-      </c>
-      <c r="B304" s="0">
-        <v>0.89876731602233217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B304" s="0"/>
       <c r="C304" s="0">
-        <v>0.97165037237650398</v>
+        <v>1</v>
       </c>
       <c r="D304" s="0">
-        <v>0.99869664385793433</v>
+        <v>1</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>0.00077780931058766645</v>
-      </c>
-      <c r="B305" s="0">
-        <v>0.86065472899505757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B305" s="0"/>
       <c r="C305" s="0">
-        <v>0.99364091044318503</v>
+        <v>1</v>
       </c>
       <c r="D305" s="0">
-        <v>0.99961109534470627</v>
+        <v>1</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.0046745001810747722</v>
-      </c>
-      <c r="B306" s="0">
-        <v>0.87045496344428408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B306" s="0"/>
       <c r="C306" s="0">
-        <v>0.95926337329586608</v>
+        <v>1</v>
       </c>
       <c r="D306" s="0">
-        <v>0.99766274990946269</v>
+        <v>1</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="307">
@@ -6364,279 +9197,269 @@
         <v>1</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.0076395398503051517</v>
-      </c>
-      <c r="B308" s="0">
-        <v>0.89800295673122188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B308" s="0"/>
       <c r="C308" s="0">
-        <v>0.91751920204870074</v>
+        <v>1</v>
       </c>
       <c r="D308" s="0">
-        <v>0.99618023007484746</v>
+        <v>1</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.008620879115628902</v>
-      </c>
-      <c r="B309" s="0">
-        <v>0.93067377417452057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B309" s="0"/>
       <c r="C309" s="0">
-        <v>0.86710109018722725</v>
+        <v>1</v>
       </c>
       <c r="D309" s="0">
-        <v>0.99568956044218548</v>
+        <v>1</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0.0076605617235642777</v>
-      </c>
-      <c r="B310" s="0">
-        <v>0.88133021386287758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B310" s="0"/>
       <c r="C310" s="0">
-        <v>0.92784452402290907</v>
+        <v>1</v>
       </c>
       <c r="D310" s="0">
-        <v>0.99616971913821784</v>
+        <v>1</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>0.0095573080153536112</v>
-      </c>
-      <c r="B311" s="0">
-        <v>0.91041009745785739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B311" s="0"/>
       <c r="C311" s="0">
-        <v>0.88385562791506911</v>
+        <v>1</v>
       </c>
       <c r="D311" s="0">
-        <v>0.99522134599232326</v>
+        <v>1</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>0.0045713018941663346</v>
+        <v>0.0019321012604524097</v>
       </c>
       <c r="B312" s="0">
-        <v>0.98809625446066918</v>
+        <v>0.99494260432098036</v>
       </c>
       <c r="C312" s="0">
-        <v>0.61142745002291266</v>
+        <v>0.61603680927342086</v>
       </c>
       <c r="D312" s="0">
-        <v>0.99771434905291678</v>
+        <v>0.99903394936977374</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>0.0037199160271717269</v>
+        <v>0.0020572769603135698</v>
       </c>
       <c r="B313" s="0">
-        <v>0.98946843018815311</v>
+        <v>0.99406039069740848</v>
       </c>
       <c r="C313" s="0">
-        <v>0.6430782004804646</v>
+        <v>0.65158125096745256</v>
       </c>
       <c r="D313" s="0">
-        <v>0.99814004198641415</v>
+        <v>0.99897136151984312</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>0.022170431970829286</v>
-      </c>
-      <c r="B314" s="0">
-        <v>0.90939287137808289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B314" s="0"/>
       <c r="C314" s="0">
-        <v>0.73363359402842565</v>
+        <v>1</v>
       </c>
       <c r="D314" s="0">
-        <v>0.98891478401458532</v>
+        <v>1</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>0.01067337837747449</v>
+        <v>0.0024041378690891511</v>
       </c>
       <c r="B315" s="0">
-        <v>0.97081825673762612</v>
+        <v>0.99289924160693177</v>
       </c>
       <c r="C315" s="0">
-        <v>0.62368520438467456</v>
+        <v>0.65902683971317344</v>
       </c>
       <c r="D315" s="0">
-        <v>0.99466331081126269</v>
+        <v>0.99879793106545545</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>0.0060265888475140202</v>
+        <v>0.0027500432381711353</v>
       </c>
       <c r="B316" s="0">
-        <v>0.96704829290984395</v>
+        <v>0.98452768171685012</v>
       </c>
       <c r="C316" s="0">
-        <v>0.81111817902437511</v>
+        <v>0.81951794693887625</v>
       </c>
       <c r="D316" s="0">
-        <v>0.99698670557624314</v>
+        <v>0.99862497838091446</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.0066238011560119216</v>
+        <v>0.0024366262186714368</v>
       </c>
       <c r="B317" s="0">
-        <v>0.96885199245935194</v>
+        <v>0.98830782805216855</v>
       </c>
       <c r="C317" s="0">
-        <v>0.78076437972256729</v>
+        <v>0.78917122804523088</v>
       </c>
       <c r="D317" s="0">
-        <v>0.9966880994219941</v>
+        <v>0.99878168689066427</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>0.0042292186838587369</v>
+        <v>0.0019053461490317039</v>
       </c>
       <c r="B318" s="0">
-        <v>0.98368778379132238</v>
+        <v>0.99284321610332604</v>
       </c>
       <c r="C318" s="0">
-        <v>0.73652170904303138</v>
+        <v>0.73186890287781592</v>
       </c>
       <c r="D318" s="0">
-        <v>0.99788539065807058</v>
+        <v>0.99904732692548404</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>0.0048254754526630417</v>
+        <v>0.0017562819568306277</v>
       </c>
       <c r="B319" s="0">
-        <v>0.98262514038321824</v>
+        <v>0.9937764377845264</v>
       </c>
       <c r="C319" s="0">
-        <v>0.71747035992262431</v>
+        <v>0.71604797559158839</v>
       </c>
       <c r="D319" s="0">
-        <v>0.99758726227366834</v>
+        <v>0.99912185902158468</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>0.01182289262887125</v>
+        <v>0.0036673613440239114</v>
       </c>
       <c r="B320" s="0">
-        <v>0.94558850298966501</v>
+        <v>0.98060670245768977</v>
       </c>
       <c r="C320" s="0">
-        <v>0.77103022489179418</v>
+        <v>0.80724151038821323</v>
       </c>
       <c r="D320" s="0">
-        <v>0.99408855368556437</v>
+        <v>0.99816631932798816</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>364</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>0.0079386237744008999</v>
+        <v>0.0037992258217402482</v>
       </c>
       <c r="B321" s="0">
-        <v>0.96497013091382278</v>
+        <v>0.98239547548132222</v>
       </c>
       <c r="C321" s="0">
-        <v>0.76549997768556099</v>
+        <v>0.78040558403007854</v>
       </c>
       <c r="D321" s="0">
-        <v>0.99603068811279949</v>
+        <v>0.99810038708912985</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>365</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>0.0059998337360933143</v>
+        <v>0.0029640841295367829</v>
       </c>
       <c r="B322" s="0">
-        <v>0.98136655451873711</v>
+        <v>0.99096047171698665</v>
       </c>
       <c r="C322" s="0">
-        <v>0.67204344734872645</v>
+        <v>0.66914217879718263</v>
       </c>
       <c r="D322" s="0">
-        <v>0.99700008313195321</v>
+        <v>0.99851795793523146</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>366</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>0.0045875460689574774</v>
+        <v>0.0028924186525170351</v>
       </c>
       <c r="B323" s="0">
-        <v>0.98445826240984391</v>
+        <v>0.99033895371113412</v>
       </c>
       <c r="C323" s="0">
-        <v>0.70025761957084276</v>
+        <v>0.69772615402634763</v>
       </c>
       <c r="D323" s="0">
-        <v>0.99770622696552125</v>
+        <v>0.99855379067374161</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>367</v>
+        <v>1344</v>
       </c>
     </row>
   </sheetData>

--- a/Project/results_extra_rgrowing_glcm.xlsx
+++ b/Project/results_extra_rgrowing_glcm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1713">
   <si>
     <t>final_1</t>
   </si>
@@ -2392,6 +2392,1110 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>Contrast</t>
@@ -4068,7 +5172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4086,11 +5190,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -4102,6 +5208,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4123,19 +5231,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1161</v>
+        <v>1529</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1162</v>
+        <v>1530</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1163</v>
+        <v>1531</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1164</v>
+        <v>1532</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1165</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2">
@@ -4152,7 +5260,7 @@
         <v>0.99926518997562408</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1166</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="3">
@@ -4169,7 +5277,7 @@
         <v>0.99909223729108332</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1167</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4">
@@ -4186,7 +5294,7 @@
         <v>0.99881704185932729</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1167</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="5">
@@ -4203,7 +5311,7 @@
         <v>0.99843864814066308</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1168</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="6">
@@ -4218,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1168</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="7">
@@ -4233,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1169</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="8">
@@ -4250,7 +5358,7 @@
         <v>0.99895081741643077</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1169</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="9">
@@ -4267,7 +5375,7 @@
         <v>0.99963880599582033</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1169</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="10">
@@ -4282,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1169</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="11">
@@ -4299,7 +5407,7 @@
         <v>0.99918779126044288</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1170</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="12">
@@ -4314,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1171</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="13">
@@ -4329,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1172</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14">
@@ -4346,7 +5454,7 @@
         <v>0.99900050548049779</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1172</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="15">
@@ -4363,7 +5471,7 @@
         <v>0.99887437424094316</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1173</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="16">
@@ -4380,7 +5488,7 @@
         <v>0.99875970947771142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1174</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17">
@@ -4397,7 +5505,7 @@
         <v>0.99925945673746264</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1175</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="18">
@@ -4414,7 +5522,7 @@
         <v>0.99914956967269886</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1176</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="19">
@@ -4431,7 +5539,7 @@
         <v>0.99934832192896694</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1177</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="20">
@@ -4448,7 +5556,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1178</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="21">
@@ -4465,7 +5573,7 @@
         <v>0.99843673706127589</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1179</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="22">
@@ -4482,7 +5590,7 @@
         <v>0.99897566144846439</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1180</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="23">
@@ -4499,7 +5607,7 @@
         <v>0.99932061127785288</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1181</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="24">
@@ -4516,7 +5624,7 @@
         <v>0.99892024014623582</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1182</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="25">
@@ -4533,7 +5641,7 @@
         <v>0.99908554851322806</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1183</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="26">
@@ -4550,7 +5658,7 @@
         <v>0.99979455896587666</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1184</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="27">
@@ -4565,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1185</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="28">
@@ -4580,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1185</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="29">
@@ -4597,7 +5705,7 @@
         <v>0.99983755825208853</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1186</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="30">
@@ -4614,7 +5722,7 @@
         <v>0.99883710819289295</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1187</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="31">
@@ -4631,7 +5739,7 @@
         <v>0.99895272849581795</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1188</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="32">
@@ -4648,7 +5756,7 @@
         <v>0.99885621898676469</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1189</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="33">
@@ -4665,7 +5773,7 @@
         <v>0.99890208489205734</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1190</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="34">
@@ -4682,7 +5790,7 @@
         <v>0.99908554851322806</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="35">
@@ -4699,7 +5807,7 @@
         <v>0.99899763886141724</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="36">
@@ -4716,7 +5824,7 @@
         <v>0.99950120827994249</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="37">
@@ -4733,7 +5841,7 @@
         <v>0.99958720685236613</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="38">
@@ -4750,7 +5858,7 @@
         <v>0.99944865359679469</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="39">
@@ -4767,7 +5875,7 @@
         <v>0.99946871993036024</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="40">
@@ -4784,7 +5892,7 @@
         <v>0.99937794365946864</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="41">
@@ -4801,7 +5909,7 @@
         <v>0.99941712078690614</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="42">
@@ -4818,7 +5926,7 @@
         <v>0.99946680885097305</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="43">
@@ -4835,7 +5943,7 @@
         <v>0.9995814736142048</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="44">
@@ -4852,7 +5960,7 @@
         <v>0.99951363029595941</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="45">
@@ -4869,7 +5977,7 @@
         <v>0.99941329862813166</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="46">
@@ -4886,7 +5994,7 @@
         <v>0.99944483143802021</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="47">
@@ -4901,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="48">
@@ -4916,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="49">
@@ -4931,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="50">
@@ -4948,7 +6056,7 @@
         <v>0.99820549645542567</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="51">
@@ -4965,7 +6073,7 @@
         <v>0.99851509131615068</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="52">
@@ -4982,7 +6090,7 @@
         <v>0.9993177446587721</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="53">
@@ -4999,7 +6107,7 @@
         <v>0.99942189848537411</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54">
@@ -5016,7 +6124,7 @@
         <v>0.99863644485723757</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="55">
@@ -5033,7 +6141,7 @@
         <v>0.99901531634574858</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="56">
@@ -5050,7 +6158,7 @@
         <v>0.99912472564066546</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="57">
@@ -5067,7 +6175,7 @@
         <v>0.99921359083216987</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="58">
@@ -5084,7 +6192,7 @@
         <v>0.99903968260793552</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1191</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="59">
@@ -5101,7 +6209,7 @@
         <v>0.99929481170612566</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1192</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="60">
@@ -5116,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1193</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="61">
@@ -5131,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1194</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="62">
@@ -5148,7 +6256,7 @@
         <v>0.99912472564066546</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1194</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="63">
@@ -5165,7 +6273,7 @@
         <v>0.99898091691677915</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>1194</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="64">
@@ -5182,7 +6290,7 @@
         <v>0.99926232335654341</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1195</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="65">
@@ -5199,7 +6307,7 @@
         <v>0.99917728032381337</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1196</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="66">
@@ -5216,7 +6324,7 @@
         <v>0.99904350476670989</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1196</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="67">
@@ -5231,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1196</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="68">
@@ -5248,7 +6356,7 @@
         <v>0.99827620639275161</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1196</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="69">
@@ -5265,7 +6373,7 @@
         <v>0.99863166715876961</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>1196</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="70">
@@ -5280,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1197</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="71">
@@ -5295,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>1198</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="72">
@@ -5312,7 +6420,7 @@
         <v>0.99911994794219749</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1198</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="73">
@@ -5329,7 +6437,7 @@
         <v>0.99906357110027522</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>1199</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="74">
@@ -5346,7 +6454,7 @@
         <v>0.9994228540250677</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>1200</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="75">
@@ -5363,7 +6471,7 @@
         <v>0.99929863386489992</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>1200</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="76">
@@ -5378,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>1201</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="77">
@@ -5395,7 +6503,7 @@
         <v>0.99967607204387077</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>1202</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="78">
@@ -5410,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>1202</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="79">
@@ -5425,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>1202</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="80">
@@ -5442,7 +6550,7 @@
         <v>0.9993301666747888</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>1202</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="81">
@@ -5457,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>1203</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="82">
@@ -5474,7 +6582,7 @@
         <v>0.99914670305361808</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1203</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="83">
@@ -5491,7 +6599,7 @@
         <v>0.99948878626392568</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>1204</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="84">
@@ -5508,7 +6616,7 @@
         <v>0.99903203829038667</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>1205</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="85">
@@ -5525,7 +6633,7 @@
         <v>0.99886195222492624</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="86">
@@ -5542,7 +6650,7 @@
         <v>0.99927092321378574</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="87">
@@ -5559,7 +6667,7 @@
         <v>0.99967607204387077</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="88">
@@ -5574,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="89">
@@ -5589,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="90">
@@ -5606,7 +6714,7 @@
         <v>0.99938845459609826</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>1206</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="91">
@@ -5623,7 +6731,7 @@
         <v>0.99900337209957857</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>1207</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="92">
@@ -5638,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>1208</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="93">
@@ -5653,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>1209</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="94">
@@ -5670,7 +6778,7 @@
         <v>0.99911517024372942</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>1210</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="95">
@@ -5685,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>1210</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="96">
@@ -5702,7 +6810,7 @@
         <v>0.99914096981545675</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>1211</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="97">
@@ -5719,7 +6827,7 @@
         <v>0.99911612578342313</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>1212</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="98">
@@ -5736,7 +6844,7 @@
         <v>0.99879506444637478</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>1213</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="99">
@@ -5751,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>1214</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="100">
@@ -5768,7 +6876,7 @@
         <v>0.99932443343662714</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>1215</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="101">
@@ -5785,7 +6893,7 @@
         <v>0.99891928460654222</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>1216</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="102">
@@ -5802,7 +6910,7 @@
         <v>0.99935309962743502</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1216</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="103">
@@ -5819,7 +6927,7 @@
         <v>0.99926614551531778</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>1217</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="104">
@@ -5836,7 +6944,7 @@
         <v>0.99942763172353566</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1218</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="105">
@@ -5853,7 +6961,7 @@
         <v>0.99940565431058281</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>1219</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="106">
@@ -5870,7 +6978,7 @@
         <v>0.99828193963091327</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1220</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="107">
@@ -5887,7 +6995,7 @@
         <v>0.99888679625695997</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1221</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="108">
@@ -5904,7 +7012,7 @@
         <v>0.998214096312668</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1222</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="109">
@@ -5921,7 +7029,7 @@
         <v>0.99833544985375455</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1223</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="110">
@@ -5938,7 +7046,7 @@
         <v>0.99912950333913342</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1223</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="111">
@@ -5955,7 +7063,7 @@
         <v>0.99923652378481642</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1224</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="112">
@@ -5972,7 +7080,7 @@
         <v>0.99893170662255903</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1224</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="113">
@@ -5989,7 +7097,7 @@
         <v>0.99882181955779525</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1225</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="114">
@@ -6006,7 +7114,7 @@
         <v>0.99940469877088933</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1225</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="115">
@@ -6023,7 +7131,7 @@
         <v>0.99950980813718493</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1225</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="116">
@@ -6040,7 +7148,7 @@
         <v>0.99862880053968883</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1226</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="117">
@@ -6057,7 +7165,7 @@
         <v>0.99919448003829792</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1227</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="118">
@@ -6074,7 +7182,7 @@
         <v>0.9992909895473514</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1228</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="119">
@@ -6091,7 +7199,7 @@
         <v>0.99901388303620819</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1229</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="120">
@@ -6108,7 +7216,7 @@
         <v>0.99932156681754647</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1229</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="121">
@@ -6125,7 +7233,7 @@
         <v>0.99948209748607075</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1230</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="122">
@@ -6142,7 +7250,7 @@
         <v>0.99910179268801902</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1231</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="123">
@@ -6159,7 +7267,7 @@
         <v>0.99920690205431473</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1232</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="124">
@@ -6176,7 +7284,7 @@
         <v>0.99936743272283901</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1232</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="125">
@@ -6193,7 +7301,7 @@
         <v>0.99887341870124957</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1233</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="126">
@@ -6210,7 +7318,7 @@
         <v>0.99892884000347815</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1233</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="127">
@@ -6227,7 +7335,7 @@
         <v>0.99899477224233646</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1234</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="128">
@@ -6244,7 +7352,7 @@
         <v>0.99904541584609707</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1234</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="129">
@@ -6261,7 +7369,7 @@
         <v>0.9994085209296637</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1235</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="130">
@@ -6278,7 +7386,7 @@
         <v>0.99879506444637467</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1235</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="131">
@@ -6295,7 +7403,7 @@
         <v>0.99861733406336561</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1236</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="132">
@@ -6310,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1237</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="133">
@@ -6327,7 +7435,7 @@
         <v>0.99987195768105819</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1238</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="134">
@@ -6342,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1238</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="135">
@@ -6359,7 +7467,7 @@
         <v>0.99886386330431354</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>1239</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="136">
@@ -6376,7 +7484,7 @@
         <v>0.99878359797005145</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>1240</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="137">
@@ -6391,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="138">
@@ -6408,7 +7516,7 @@
         <v>0.998555223983282</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="139">
@@ -6425,7 +7533,7 @@
         <v>0.99833544985375466</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="140">
@@ -6440,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="141">
@@ -6455,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="142">
@@ -6470,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1241</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="143">
@@ -6485,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>1242</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="144">
@@ -6500,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1243</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="145">
@@ -6515,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>1244</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="146">
@@ -6532,7 +7640,7 @@
         <v>0.99842813720403356</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1245</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="147">
@@ -6549,7 +7657,7 @@
         <v>0.99909892606893824</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1246</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="148">
@@ -6566,7 +7674,7 @@
         <v>0.99886768546308791</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1247</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="149">
@@ -6583,7 +7691,7 @@
         <v>0.99880557538300407</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1248</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="150">
@@ -6600,7 +7708,7 @@
         <v>0.99944005373955225</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>1248</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="151">
@@ -6617,7 +7725,7 @@
         <v>0.99975729291782645</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1249</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="152">
@@ -6634,7 +7742,7 @@
         <v>0.99827238423397724</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1250</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="153">
@@ -6651,7 +7759,7 @@
         <v>0.99879984214484263</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>1251</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="154">
@@ -6666,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1252</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="155">
@@ -6683,7 +7791,7 @@
         <v>0.99902152735375704</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>1253</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="156">
@@ -6700,7 +7808,7 @@
         <v>0.99870524371517644</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1254</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="157">
@@ -6715,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1254</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="158">
@@ -6732,7 +7840,7 @@
         <v>0.99878742012882582</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>1255</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="159">
@@ -6749,7 +7857,7 @@
         <v>0.99885765229630519</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>1256</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="160">
@@ -6766,7 +7874,7 @@
         <v>0.99904732692548404</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1256</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="161">
@@ -6783,7 +7891,7 @@
         <v>0.99841523741816984</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>1257</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="162">
@@ -6800,7 +7908,7 @@
         <v>0.99942954280292284</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>1258</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="163">
@@ -6817,7 +7925,7 @@
         <v>0.99891068474929978</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1259</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="164">
@@ -6834,7 +7942,7 @@
         <v>0.99858293463439618</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1260</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="165">
@@ -6851,7 +7959,7 @@
         <v>0.99865651119080301</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>1260</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="166">
@@ -6868,7 +7976,7 @@
         <v>0.99969136067896824</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1261</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="167">
@@ -6885,7 +7993,7 @@
         <v>0.99969613837743621</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>1262</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="168">
@@ -6900,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>1263</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="169">
@@ -6915,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>1264</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="170">
@@ -6932,7 +8040,7 @@
         <v>0.99924130148328438</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>1265</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="171">
@@ -6949,7 +8057,7 @@
         <v>0.99927092321378574</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>1266</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="172">
@@ -6966,7 +8074,7 @@
         <v>0.99859249003133221</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>1266</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="173">
@@ -6983,7 +8091,7 @@
         <v>0.99883137495473129</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>1267</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="174">
@@ -7000,7 +8108,7 @@
         <v>0.99876735379526016</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>1267</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="175">
@@ -7017,7 +8125,7 @@
         <v>0.99873582098537161</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>1268</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="176">
@@ -7034,7 +8142,7 @@
         <v>0.99908363743384088</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>1268</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="177">
@@ -7051,7 +8159,7 @@
         <v>0.99936265502437105</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>1268</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="178">
@@ -7068,7 +8176,7 @@
         <v>0.99923079054665476</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>1269</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="179">
@@ -7085,7 +8193,7 @@
         <v>0.9993550107068222</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>1270</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="180">
@@ -7102,7 +8210,7 @@
         <v>0.99863644485723768</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>1270</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="181">
@@ -7119,7 +8227,7 @@
         <v>0.99826378437673502</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>1271</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="182">
@@ -7136,7 +8244,7 @@
         <v>0.99935883286559657</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>1271</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="183">
@@ -7153,7 +8261,7 @@
         <v>0.99916294722840937</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>1272</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="184">
@@ -7168,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>1273</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="185">
@@ -7185,7 +8293,7 @@
         <v>0.99845584785514796</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>1274</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="186">
@@ -7202,7 +8310,7 @@
         <v>0.9994744531685219</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>1274</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="187">
@@ -7219,7 +8327,7 @@
         <v>0.99924703472144571</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>1275</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="188">
@@ -7236,7 +8344,7 @@
         <v>0.99951649691504008</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>1276</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="189">
@@ -7253,7 +8361,7 @@
         <v>0.99947158654944113</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>1277</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="190">
@@ -7268,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>1278</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="191">
@@ -7283,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>1279</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="192">
@@ -7300,7 +8408,7 @@
         <v>0.9989068625905253</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>1280</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="193">
@@ -7317,7 +8425,7 @@
         <v>0.99908172635445369</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>1281</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="194">
@@ -7334,7 +8442,7 @@
         <v>0.99852560225278042</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>1281</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="195">
@@ -7351,7 +8459,7 @@
         <v>0.99903777152854822</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>1282</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="196">
@@ -7368,7 +8476,7 @@
         <v>0.99948687518453871</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>1283</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="197">
@@ -7385,7 +8493,7 @@
         <v>0.99965696124999881</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>1284</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="198">
@@ -7402,7 +8510,7 @@
         <v>0.99872913220751647</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>1285</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="199">
@@ -7419,7 +8527,7 @@
         <v>0.99906930433843688</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1286</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="200">
@@ -7436,7 +8544,7 @@
         <v>0.99909128175138973</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>1286</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="201">
@@ -7453,7 +8561,7 @@
         <v>0.99912950333913353</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>1287</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +8578,7 @@
         <v>0.99864504471448001</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>1287</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="203">
@@ -7487,7 +8595,7 @@
         <v>0.99862115622213998</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>1288</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="204">
@@ -7502,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>1288</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="205">
@@ -7517,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>1289</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="206">
@@ -7532,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1290</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="207">
@@ -7547,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>1291</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="208">
@@ -7564,7 +8672,7 @@
         <v>0.99933494437325687</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>1292</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="209">
@@ -7581,7 +8689,7 @@
         <v>0.99941425416782526</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1293</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="210">
@@ -7598,7 +8706,7 @@
         <v>0.99956522943941351</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1294</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="211">
@@ -7615,7 +8723,7 @@
         <v>0.99945247575556906</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1295</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="212">
@@ -7632,7 +8740,7 @@
         <v>0.99929385616643196</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>1296</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="213">
@@ -7649,7 +8757,7 @@
         <v>0.99906930433843677</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>1297</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="214">
@@ -7664,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1298</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="215">
@@ -7681,7 +8789,7 @@
         <v>0.99965313909122444</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>1299</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="216">
@@ -7698,7 +8806,7 @@
         <v>0.99855044628481393</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1300</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="217">
@@ -7715,7 +8823,7 @@
         <v>0.99806407658077334</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1301</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="218">
@@ -7732,7 +8840,7 @@
         <v>0.99908459297353458</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>1302</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="219">
@@ -7749,7 +8857,7 @@
         <v>0.99857815693592811</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>1303</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="220">
@@ -7766,7 +8874,7 @@
         <v>0.9986870884609983</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>1304</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="221">
@@ -7783,7 +8891,7 @@
         <v>0.99898235022631954</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>1305</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="222">
@@ -7800,7 +8908,7 @@
         <v>0.99930341156336799</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>1305</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="223">
@@ -7817,7 +8925,7 @@
         <v>0.9990425492270163</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>1306</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="224">
@@ -7834,7 +8942,7 @@
         <v>0.99945247575556906</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>1306</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="225">
@@ -7851,7 +8959,7 @@
         <v>0.99953274108983126</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>1307</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="226">
@@ -7868,7 +8976,7 @@
         <v>0.99927952307102819</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>1307</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="227">
@@ -7885,7 +8993,7 @@
         <v>0.99935309962743513</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>1307</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="228">
@@ -7902,7 +9010,7 @@
         <v>0.99916199168871578</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>1308</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="229">
@@ -7919,7 +9027,7 @@
         <v>0.99937125488161338</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>1308</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="230">
@@ -7936,7 +9044,7 @@
         <v>0.99853515764971634</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>1309</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="231">
@@ -7953,7 +9061,7 @@
         <v>0.99891832906684852</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>1309</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="232">
@@ -7968,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1309</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="233">
@@ -7983,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1309</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="234">
@@ -8000,7 +9108,7 @@
         <v>0.99962351736072297</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>1310</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="235">
@@ -8017,7 +9125,7 @@
         <v>0.99949356396239375</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>1310</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="236">
@@ -8034,7 +9142,7 @@
         <v>0.99909892606893824</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>1310</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="237">
@@ -8051,7 +9159,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>1311</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="238">
@@ -8066,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>1312</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="239">
@@ -8081,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>1313</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="240">
@@ -8098,7 +9206,7 @@
         <v>0.99774779294219273</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>1314</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="241">
@@ -8115,7 +9223,7 @@
         <v>0.99847686972840688</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>1314</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="242">
@@ -8132,7 +9240,7 @@
         <v>0.99950694151810404</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>1315</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="243">
@@ -8149,7 +9257,7 @@
         <v>0.99921359083216987</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>1316</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="244">
@@ -8166,7 +9274,7 @@
         <v>0.9984109374895489</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>1317</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="245">
@@ -8183,7 +9291,7 @@
         <v>0.99883615265319936</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>1317</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="246">
@@ -8200,7 +9308,7 @@
         <v>0.99920594651462114</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>1317</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="247">
@@ -8217,7 +9325,7 @@
         <v>0.99920594651462114</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>1318</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="248">
@@ -8234,7 +9342,7 @@
         <v>0.99883519711350577</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>1319</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="249">
@@ -8251,7 +9359,7 @@
         <v>0.99865460011141605</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>1320</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="250">
@@ -8268,7 +9376,7 @@
         <v>0.99930914480152966</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>1320</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="251">
@@ -8285,7 +9393,7 @@
         <v>0.99942285402506759</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1321</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="252">
@@ -8300,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1322</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="253">
@@ -8315,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1323</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="254">
@@ -8332,7 +9440,7 @@
         <v>0.99796183383355841</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1323</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="255">
@@ -8349,7 +9457,7 @@
         <v>0.99878646458913223</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1324</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="256">
@@ -8364,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>1325</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="257">
@@ -8379,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1325</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="258">
@@ -8396,7 +9504,7 @@
         <v>0.99887532978063676</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>1326</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="259">
@@ -8413,7 +9521,7 @@
         <v>0.9987625760967922</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>1326</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="260">
@@ -8430,7 +9538,7 @@
         <v>0.99873486544567802</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1327</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="261">
@@ -8447,7 +9555,7 @@
         <v>0.99870811033425722</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1328</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="262">
@@ -8464,7 +9572,7 @@
         <v>0.99937889919916223</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1329</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="263">
@@ -8481,7 +9589,7 @@
         <v>0.99931105588091684</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1329</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="264">
@@ -8496,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>1330</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="265">
@@ -8511,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="266">
@@ -8528,7 +9636,7 @@
         <v>0.99927283429317293</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="267">
@@ -8545,7 +9653,7 @@
         <v>0.99927283429317293</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="268">
@@ -8562,7 +9670,7 @@
         <v>0.99903586044916104</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="269">
@@ -8579,7 +9687,7 @@
         <v>0.99887962970925792</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="270">
@@ -8596,7 +9704,7 @@
         <v>0.99876830933495397</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="271">
@@ -8613,7 +9721,7 @@
         <v>0.99854614635619277</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>1331</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="272">
@@ -8630,7 +9738,7 @@
         <v>0.99937985473885582</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>1332</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="273">
@@ -8645,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>1332</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="274">
@@ -8660,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>1333</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="275">
@@ -8677,7 +9785,7 @@
         <v>0.99983182501392698</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>1334</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="276">
@@ -8694,7 +9802,7 @@
         <v>0.99933303329386969</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>1335</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="277">
@@ -8711,7 +9819,7 @@
         <v>0.99914479197423112</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>1335</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="278">
@@ -8728,7 +9836,7 @@
         <v>0.99898999454386839</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>1336</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="279">
@@ -8745,7 +9853,7 @@
         <v>0.99931487803969121</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>1336</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="280">
@@ -8762,7 +9870,7 @@
         <v>0.99873486544567813</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>1337</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="281">
@@ -8779,7 +9887,7 @@
         <v>0.99799718880222144</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>1337</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="282">
@@ -8796,7 +9904,7 @@
         <v>0.99886099668523276</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>1338</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="283">
@@ -8813,7 +9921,7 @@
         <v>0.99920307989554036</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="284">
@@ -8830,7 +9938,7 @@
         <v>0.99908841513230895</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="285">
@@ -8847,7 +9955,7 @@
         <v>0.99944483143802032</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="286">
@@ -8864,7 +9972,7 @@
         <v>0.9989756614484645</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="287">
@@ -8881,7 +9989,7 @@
         <v>0.99935692178620938</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="288">
@@ -8898,7 +10006,7 @@
         <v>0.99937603258008145</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="289">
@@ -8915,7 +10023,7 @@
         <v>0.99902630505222501</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="290">
@@ -8932,7 +10040,7 @@
         <v>0.99948496410515153</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="291">
@@ -8949,7 +10057,7 @@
         <v>0.99948591964484512</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="292">
@@ -8966,7 +10074,7 @@
         <v>0.99870333263578948</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="293">
@@ -8983,7 +10091,7 @@
         <v>0.99867562198467497</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="294">
@@ -8998,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="295">
@@ -9013,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="296">
@@ -9030,7 +10138,7 @@
         <v>0.99709038163299835</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="297">
@@ -9047,7 +10155,7 @@
         <v>0.99844438137882463</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>1339</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="298">
@@ -9062,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>1340</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="299">
@@ -9077,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="300">
@@ -9092,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="301">
@@ -9107,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="302">
@@ -9122,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="303">
@@ -9137,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="304">
@@ -9152,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="305">
@@ -9167,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="306">
@@ -9182,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="307">
@@ -9197,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="308">
@@ -9212,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="309">
@@ -9227,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="310">
@@ -9242,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="311">
@@ -9257,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="312">
@@ -9274,7 +10382,7 @@
         <v>0.99903394936977374</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="313">
@@ -9291,7 +10399,7 @@
         <v>0.99897136151984312</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="314">
@@ -9306,7 +10414,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="315">
@@ -9323,7 +10431,7 @@
         <v>0.99879793106545545</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="316">
@@ -9340,7 +10448,7 @@
         <v>0.99862497838091446</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="317">
@@ -9357,7 +10465,7 @@
         <v>0.99878168689066427</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="318">
@@ -9374,7 +10482,7 @@
         <v>0.99904732692548404</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="319">
@@ -9391,7 +10499,7 @@
         <v>0.99912185902158468</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1341</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="320">
@@ -9408,7 +10516,7 @@
         <v>0.99816631932798816</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1342</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="321">
@@ -9425,7 +10533,7 @@
         <v>0.99810038708912985</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>1343</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="322">
@@ -9442,7 +10550,7 @@
         <v>0.99851795793523146</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>1344</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="323">
@@ -9459,7 +10567,7 @@
         <v>0.99855379067374161</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1344</v>
+        <v>1712</v>
       </c>
     </row>
   </sheetData>

--- a/Project/results_extra_rgrowing_glcm.xlsx
+++ b/Project/results_extra_rgrowing_glcm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="2119">
   <si>
     <t>final_1</t>
   </si>
@@ -4600,6 +4600,1224 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Contrast</t>
@@ -5172,7 +6390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5192,11 +6410,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -5210,6 +6432,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5231,19 +6457,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1529</v>
+        <v>1935</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1530</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1531</v>
+        <v>1937</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1532</v>
+        <v>1938</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1533</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="2">
@@ -5260,7 +6486,7 @@
         <v>0.99926518997562408</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1534</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="3">
@@ -5277,7 +6503,7 @@
         <v>0.99909223729108332</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1535</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="4">
@@ -5294,7 +6520,7 @@
         <v>0.99881704185932729</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1535</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="5">
@@ -5311,7 +6537,7 @@
         <v>0.99843864814066308</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1536</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="6">
@@ -5326,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1536</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="7">
@@ -5341,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1537</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="8">
@@ -5358,7 +6584,7 @@
         <v>0.99895081741643077</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1537</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="9">
@@ -5375,7 +6601,7 @@
         <v>0.99963880599582033</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1537</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="10">
@@ -5390,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1537</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="11">
@@ -5407,7 +6633,7 @@
         <v>0.99918779126044288</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1538</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="12">
@@ -5422,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1539</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="13">
@@ -5437,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1540</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="14">
@@ -5454,7 +6680,7 @@
         <v>0.99900050548049779</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1540</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="15">
@@ -5471,7 +6697,7 @@
         <v>0.99887437424094316</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1541</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="16">
@@ -5488,7 +6714,7 @@
         <v>0.99875970947771142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1542</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="17">
@@ -5505,7 +6731,7 @@
         <v>0.99925945673746264</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1543</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="18">
@@ -5522,7 +6748,7 @@
         <v>0.99914956967269886</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1544</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19">
@@ -5539,7 +6765,7 @@
         <v>0.99934832192896694</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1545</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="20">
@@ -5556,7 +6782,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1546</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="21">
@@ -5573,7 +6799,7 @@
         <v>0.99843673706127589</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1547</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="22">
@@ -5590,7 +6816,7 @@
         <v>0.99897566144846439</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1548</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="23">
@@ -5607,7 +6833,7 @@
         <v>0.99932061127785288</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1549</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="24">
@@ -5624,7 +6850,7 @@
         <v>0.99892024014623582</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1550</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="25">
@@ -5641,7 +6867,7 @@
         <v>0.99908554851322806</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1551</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="26">
@@ -5658,7 +6884,7 @@
         <v>0.99979455896587666</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1552</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="27">
@@ -5673,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1553</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="28">
@@ -5688,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1553</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="29">
@@ -5705,7 +6931,7 @@
         <v>0.99983755825208853</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1554</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="30">
@@ -5722,7 +6948,7 @@
         <v>0.99883710819289295</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1555</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="31">
@@ -5739,7 +6965,7 @@
         <v>0.99895272849581795</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1556</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="32">
@@ -5756,7 +6982,7 @@
         <v>0.99885621898676469</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1557</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="33">
@@ -5773,7 +6999,7 @@
         <v>0.99890208489205734</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1558</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="34">
@@ -5790,7 +7016,7 @@
         <v>0.99908554851322806</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="35">
@@ -5807,7 +7033,7 @@
         <v>0.99899763886141724</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="36">
@@ -5824,7 +7050,7 @@
         <v>0.99950120827994249</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="37">
@@ -5841,7 +7067,7 @@
         <v>0.99958720685236613</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="38">
@@ -5858,7 +7084,7 @@
         <v>0.99944865359679469</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="39">
@@ -5875,7 +7101,7 @@
         <v>0.99946871993036024</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="40">
@@ -5892,7 +7118,7 @@
         <v>0.99937794365946864</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="41">
@@ -5909,7 +7135,7 @@
         <v>0.99941712078690614</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="42">
@@ -5926,7 +7152,7 @@
         <v>0.99946680885097305</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="43">
@@ -5943,7 +7169,7 @@
         <v>0.9995814736142048</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="44">
@@ -5960,7 +7186,7 @@
         <v>0.99951363029595941</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="45">
@@ -5977,7 +7203,7 @@
         <v>0.99941329862813166</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="46">
@@ -5994,7 +7220,7 @@
         <v>0.99944483143802021</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="47">
@@ -6009,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="48">
@@ -6024,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="49">
@@ -6039,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="50">
@@ -6056,7 +7282,7 @@
         <v>0.99820549645542567</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="51">
@@ -6073,7 +7299,7 @@
         <v>0.99851509131615068</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="52">
@@ -6090,7 +7316,7 @@
         <v>0.9993177446587721</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="53">
@@ -6107,7 +7333,7 @@
         <v>0.99942189848537411</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="54">
@@ -6124,7 +7350,7 @@
         <v>0.99863644485723757</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="55">
@@ -6141,7 +7367,7 @@
         <v>0.99901531634574858</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="56">
@@ -6158,7 +7384,7 @@
         <v>0.99912472564066546</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="57">
@@ -6175,7 +7401,7 @@
         <v>0.99921359083216987</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="58">
@@ -6192,7 +7418,7 @@
         <v>0.99903968260793552</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1559</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="59">
@@ -6209,7 +7435,7 @@
         <v>0.99929481170612566</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1560</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="60">
@@ -6224,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1561</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="61">
@@ -6239,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1562</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="62">
@@ -6256,7 +7482,7 @@
         <v>0.99912472564066546</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1562</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="63">
@@ -6273,7 +7499,7 @@
         <v>0.99898091691677915</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>1562</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="64">
@@ -6290,7 +7516,7 @@
         <v>0.99926232335654341</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1563</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="65">
@@ -6307,7 +7533,7 @@
         <v>0.99917728032381337</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1564</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="66">
@@ -6324,7 +7550,7 @@
         <v>0.99904350476670989</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1564</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="67">
@@ -6339,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1564</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="68">
@@ -6356,7 +7582,7 @@
         <v>0.99827620639275161</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1564</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="69">
@@ -6373,7 +7599,7 @@
         <v>0.99863166715876961</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>1564</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="70">
@@ -6388,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1565</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="71">
@@ -6403,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>1566</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="72">
@@ -6420,7 +7646,7 @@
         <v>0.99911994794219749</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1566</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="73">
@@ -6437,7 +7663,7 @@
         <v>0.99906357110027522</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>1567</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="74">
@@ -6454,7 +7680,7 @@
         <v>0.9994228540250677</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>1568</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="75">
@@ -6471,7 +7697,7 @@
         <v>0.99929863386489992</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>1568</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="76">
@@ -6486,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>1569</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="77">
@@ -6503,7 +7729,7 @@
         <v>0.99967607204387077</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>1570</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="78">
@@ -6518,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>1570</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="79">
@@ -6533,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>1570</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="80">
@@ -6550,7 +7776,7 @@
         <v>0.9993301666747888</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>1570</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="81">
@@ -6565,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>1571</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="82">
@@ -6582,7 +7808,7 @@
         <v>0.99914670305361808</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1571</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="83">
@@ -6599,7 +7825,7 @@
         <v>0.99948878626392568</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>1572</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="84">
@@ -6616,7 +7842,7 @@
         <v>0.99903203829038667</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>1573</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="85">
@@ -6633,7 +7859,7 @@
         <v>0.99886195222492624</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="86">
@@ -6650,7 +7876,7 @@
         <v>0.99927092321378574</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="87">
@@ -6667,7 +7893,7 @@
         <v>0.99967607204387077</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="88">
@@ -6682,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="89">
@@ -6697,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="90">
@@ -6714,7 +7940,7 @@
         <v>0.99938845459609826</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>1574</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="91">
@@ -6731,7 +7957,7 @@
         <v>0.99900337209957857</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>1575</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="92">
@@ -6746,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>1576</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="93">
@@ -6761,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>1577</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="94">
@@ -6778,7 +8004,7 @@
         <v>0.99911517024372942</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>1578</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="95">
@@ -6793,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>1578</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="96">
@@ -6810,7 +8036,7 @@
         <v>0.99914096981545675</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>1579</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="97">
@@ -6827,7 +8053,7 @@
         <v>0.99911612578342313</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>1580</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="98">
@@ -6844,7 +8070,7 @@
         <v>0.99879506444637478</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>1581</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="99">
@@ -6859,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>1582</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="100">
@@ -6876,7 +8102,7 @@
         <v>0.99932443343662714</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>1583</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="101">
@@ -6893,7 +8119,7 @@
         <v>0.99891928460654222</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>1584</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="102">
@@ -6910,7 +8136,7 @@
         <v>0.99935309962743502</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1584</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="103">
@@ -6927,7 +8153,7 @@
         <v>0.99926614551531778</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>1585</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="104">
@@ -6944,7 +8170,7 @@
         <v>0.99942763172353566</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1586</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="105">
@@ -6961,7 +8187,7 @@
         <v>0.99940565431058281</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>1587</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="106">
@@ -6978,7 +8204,7 @@
         <v>0.99828193963091327</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1588</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="107">
@@ -6995,7 +8221,7 @@
         <v>0.99888679625695997</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1589</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="108">
@@ -7012,7 +8238,7 @@
         <v>0.998214096312668</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1590</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="109">
@@ -7029,7 +8255,7 @@
         <v>0.99833544985375455</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1591</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="110">
@@ -7046,7 +8272,7 @@
         <v>0.99912950333913342</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1591</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="111">
@@ -7063,7 +8289,7 @@
         <v>0.99923652378481642</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1592</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="112">
@@ -7080,7 +8306,7 @@
         <v>0.99893170662255903</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1592</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="113">
@@ -7097,7 +8323,7 @@
         <v>0.99882181955779525</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1593</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="114">
@@ -7114,7 +8340,7 @@
         <v>0.99940469877088933</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1593</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="115">
@@ -7131,7 +8357,7 @@
         <v>0.99950980813718493</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1593</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="116">
@@ -7148,7 +8374,7 @@
         <v>0.99862880053968883</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1594</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="117">
@@ -7165,7 +8391,7 @@
         <v>0.99919448003829792</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1595</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="118">
@@ -7182,7 +8408,7 @@
         <v>0.9992909895473514</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1596</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="119">
@@ -7199,7 +8425,7 @@
         <v>0.99901388303620819</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1597</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="120">
@@ -7216,7 +8442,7 @@
         <v>0.99932156681754647</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1597</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="121">
@@ -7233,7 +8459,7 @@
         <v>0.99948209748607075</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1598</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="122">
@@ -7250,7 +8476,7 @@
         <v>0.99910179268801902</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1599</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="123">
@@ -7267,7 +8493,7 @@
         <v>0.99920690205431473</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1600</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="124">
@@ -7284,7 +8510,7 @@
         <v>0.99936743272283901</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1600</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="125">
@@ -7301,7 +8527,7 @@
         <v>0.99887341870124957</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1601</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="126">
@@ -7318,7 +8544,7 @@
         <v>0.99892884000347815</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1601</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="127">
@@ -7335,7 +8561,7 @@
         <v>0.99899477224233646</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1602</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="128">
@@ -7352,7 +8578,7 @@
         <v>0.99904541584609707</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1602</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="129">
@@ -7369,7 +8595,7 @@
         <v>0.9994085209296637</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1603</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="130">
@@ -7386,7 +8612,7 @@
         <v>0.99879506444637467</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1603</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="131">
@@ -7403,7 +8629,7 @@
         <v>0.99861733406336561</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1604</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="132">
@@ -7418,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1605</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="133">
@@ -7435,7 +8661,7 @@
         <v>0.99987195768105819</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1606</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="134">
@@ -7450,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1606</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="135">
@@ -7467,7 +8693,7 @@
         <v>0.99886386330431354</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>1607</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="136">
@@ -7484,7 +8710,7 @@
         <v>0.99878359797005145</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>1608</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="137">
@@ -7499,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="138">
@@ -7516,7 +8742,7 @@
         <v>0.998555223983282</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="139">
@@ -7533,7 +8759,7 @@
         <v>0.99833544985375466</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="140">
@@ -7548,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="141">
@@ -7563,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="142">
@@ -7578,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1609</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="143">
@@ -7593,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>1610</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="144">
@@ -7608,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1611</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="145">
@@ -7623,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>1612</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="146">
@@ -7640,7 +8866,7 @@
         <v>0.99842813720403356</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1613</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="147">
@@ -7657,7 +8883,7 @@
         <v>0.99909892606893824</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1614</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="148">
@@ -7674,7 +8900,7 @@
         <v>0.99886768546308791</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1615</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="149">
@@ -7691,7 +8917,7 @@
         <v>0.99880557538300407</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1616</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="150">
@@ -7708,7 +8934,7 @@
         <v>0.99944005373955225</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>1616</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="151">
@@ -7725,7 +8951,7 @@
         <v>0.99975729291782645</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1617</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="152">
@@ -7742,7 +8968,7 @@
         <v>0.99827238423397724</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1618</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="153">
@@ -7759,7 +8985,7 @@
         <v>0.99879984214484263</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>1619</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="154">
@@ -7774,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1620</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="155">
@@ -7791,7 +9017,7 @@
         <v>0.99902152735375704</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>1621</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="156">
@@ -7808,7 +9034,7 @@
         <v>0.99870524371517644</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1622</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="157">
@@ -7823,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1622</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="158">
@@ -7840,7 +9066,7 @@
         <v>0.99878742012882582</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>1623</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="159">
@@ -7857,7 +9083,7 @@
         <v>0.99885765229630519</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>1624</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="160">
@@ -7874,7 +9100,7 @@
         <v>0.99904732692548404</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1624</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="161">
@@ -7891,7 +9117,7 @@
         <v>0.99841523741816984</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>1625</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="162">
@@ -7908,7 +9134,7 @@
         <v>0.99942954280292284</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>1626</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="163">
@@ -7925,7 +9151,7 @@
         <v>0.99891068474929978</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1627</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="164">
@@ -7942,7 +9168,7 @@
         <v>0.99858293463439618</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1628</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="165">
@@ -7959,7 +9185,7 @@
         <v>0.99865651119080301</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>1628</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="166">
@@ -7976,7 +9202,7 @@
         <v>0.99969136067896824</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1629</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="167">
@@ -7993,7 +9219,7 @@
         <v>0.99969613837743621</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>1630</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="168">
@@ -8008,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>1631</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="169">
@@ -8023,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>1632</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="170">
@@ -8040,7 +9266,7 @@
         <v>0.99924130148328438</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>1633</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="171">
@@ -8057,7 +9283,7 @@
         <v>0.99927092321378574</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>1634</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="172">
@@ -8074,7 +9300,7 @@
         <v>0.99859249003133221</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>1634</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="173">
@@ -8091,7 +9317,7 @@
         <v>0.99883137495473129</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>1635</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="174">
@@ -8108,7 +9334,7 @@
         <v>0.99876735379526016</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>1635</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="175">
@@ -8125,7 +9351,7 @@
         <v>0.99873582098537161</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>1636</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="176">
@@ -8142,7 +9368,7 @@
         <v>0.99908363743384088</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>1636</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="177">
@@ -8159,7 +9385,7 @@
         <v>0.99936265502437105</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>1636</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="178">
@@ -8176,7 +9402,7 @@
         <v>0.99923079054665476</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>1637</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="179">
@@ -8193,7 +9419,7 @@
         <v>0.9993550107068222</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>1638</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="180">
@@ -8210,7 +9436,7 @@
         <v>0.99863644485723768</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>1638</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="181">
@@ -8227,7 +9453,7 @@
         <v>0.99826378437673502</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>1639</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="182">
@@ -8244,7 +9470,7 @@
         <v>0.99935883286559657</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>1639</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="183">
@@ -8261,7 +9487,7 @@
         <v>0.99916294722840937</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>1640</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="184">
@@ -8276,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>1641</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="185">
@@ -8293,7 +9519,7 @@
         <v>0.99845584785514796</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>1642</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="186">
@@ -8310,7 +9536,7 @@
         <v>0.9994744531685219</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>1642</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="187">
@@ -8327,7 +9553,7 @@
         <v>0.99924703472144571</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>1643</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="188">
@@ -8344,7 +9570,7 @@
         <v>0.99951649691504008</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>1644</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="189">
@@ -8361,7 +9587,7 @@
         <v>0.99947158654944113</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>1645</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="190">
@@ -8376,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>1646</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="191">
@@ -8391,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>1647</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="192">
@@ -8408,7 +9634,7 @@
         <v>0.9989068625905253</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>1648</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="193">
@@ -8425,7 +9651,7 @@
         <v>0.99908172635445369</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>1649</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="194">
@@ -8442,7 +9668,7 @@
         <v>0.99852560225278042</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>1649</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="195">
@@ -8459,7 +9685,7 @@
         <v>0.99903777152854822</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>1650</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="196">
@@ -8476,7 +9702,7 @@
         <v>0.99948687518453871</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>1651</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="197">
@@ -8493,7 +9719,7 @@
         <v>0.99965696124999881</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>1652</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="198">
@@ -8510,7 +9736,7 @@
         <v>0.99872913220751647</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>1653</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="199">
@@ -8527,7 +9753,7 @@
         <v>0.99906930433843688</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1654</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="200">
@@ -8544,7 +9770,7 @@
         <v>0.99909128175138973</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>1654</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="201">
@@ -8561,7 +9787,7 @@
         <v>0.99912950333913353</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>1655</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="202">
@@ -8578,7 +9804,7 @@
         <v>0.99864504471448001</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>1655</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="203">
@@ -8595,7 +9821,7 @@
         <v>0.99862115622213998</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>1656</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="204">
@@ -8610,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>1656</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="205">
@@ -8625,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>1657</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="206">
@@ -8640,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1658</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="207">
@@ -8655,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>1659</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="208">
@@ -8672,7 +9898,7 @@
         <v>0.99933494437325687</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>1660</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="209">
@@ -8689,7 +9915,7 @@
         <v>0.99941425416782526</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1661</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="210">
@@ -8706,7 +9932,7 @@
         <v>0.99956522943941351</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1662</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="211">
@@ -8723,7 +9949,7 @@
         <v>0.99945247575556906</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1663</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="212">
@@ -8740,7 +9966,7 @@
         <v>0.99929385616643196</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>1664</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="213">
@@ -8757,7 +9983,7 @@
         <v>0.99906930433843677</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>1665</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="214">
@@ -8772,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1666</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="215">
@@ -8789,7 +10015,7 @@
         <v>0.99965313909122444</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>1667</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="216">
@@ -8806,7 +10032,7 @@
         <v>0.99855044628481393</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1668</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="217">
@@ -8823,7 +10049,7 @@
         <v>0.99806407658077334</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="218">
@@ -8840,7 +10066,7 @@
         <v>0.99908459297353458</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>1670</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="219">
@@ -8857,7 +10083,7 @@
         <v>0.99857815693592811</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>1671</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="220">
@@ -8874,7 +10100,7 @@
         <v>0.9986870884609983</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>1672</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="221">
@@ -8891,7 +10117,7 @@
         <v>0.99898235022631954</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>1673</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="222">
@@ -8908,7 +10134,7 @@
         <v>0.99930341156336799</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>1673</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="223">
@@ -8925,7 +10151,7 @@
         <v>0.9990425492270163</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>1674</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="224">
@@ -8942,7 +10168,7 @@
         <v>0.99945247575556906</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>1674</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="225">
@@ -8959,7 +10185,7 @@
         <v>0.99953274108983126</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>1675</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="226">
@@ -8976,7 +10202,7 @@
         <v>0.99927952307102819</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>1675</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="227">
@@ -8993,7 +10219,7 @@
         <v>0.99935309962743513</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>1675</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="228">
@@ -9010,7 +10236,7 @@
         <v>0.99916199168871578</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>1676</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="229">
@@ -9027,7 +10253,7 @@
         <v>0.99937125488161338</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>1676</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="230">
@@ -9044,7 +10270,7 @@
         <v>0.99853515764971634</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>1677</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="231">
@@ -9061,7 +10287,7 @@
         <v>0.99891832906684852</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>1677</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="232">
@@ -9076,7 +10302,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1677</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="233">
@@ -9091,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1677</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="234">
@@ -9108,7 +10334,7 @@
         <v>0.99962351736072297</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>1678</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="235">
@@ -9125,7 +10351,7 @@
         <v>0.99949356396239375</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>1678</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="236">
@@ -9142,7 +10368,7 @@
         <v>0.99909892606893824</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>1678</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="237">
@@ -9159,7 +10385,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>1679</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="238">
@@ -9174,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>1680</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="239">
@@ -9189,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>1681</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="240">
@@ -9206,7 +10432,7 @@
         <v>0.99774779294219273</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>1682</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="241">
@@ -9223,7 +10449,7 @@
         <v>0.99847686972840688</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>1682</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="242">
@@ -9240,7 +10466,7 @@
         <v>0.99950694151810404</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>1683</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="243">
@@ -9257,7 +10483,7 @@
         <v>0.99921359083216987</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>1684</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="244">
@@ -9274,7 +10500,7 @@
         <v>0.9984109374895489</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>1685</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="245">
@@ -9291,7 +10517,7 @@
         <v>0.99883615265319936</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>1685</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="246">
@@ -9308,7 +10534,7 @@
         <v>0.99920594651462114</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>1685</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="247">
@@ -9325,7 +10551,7 @@
         <v>0.99920594651462114</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>1686</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="248">
@@ -9342,7 +10568,7 @@
         <v>0.99883519711350577</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>1687</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="249">
@@ -9359,7 +10585,7 @@
         <v>0.99865460011141605</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>1688</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="250">
@@ -9376,7 +10602,7 @@
         <v>0.99930914480152966</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>1688</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="251">
@@ -9393,7 +10619,7 @@
         <v>0.99942285402506759</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1689</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="252">
@@ -9408,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1690</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="253">
@@ -9423,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1691</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="254">
@@ -9440,7 +10666,7 @@
         <v>0.99796183383355841</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1691</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="255">
@@ -9457,7 +10683,7 @@
         <v>0.99878646458913223</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1692</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="256">
@@ -9472,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>1693</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="257">
@@ -9487,7 +10713,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1693</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="258">
@@ -9504,7 +10730,7 @@
         <v>0.99887532978063676</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>1694</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="259">
@@ -9521,7 +10747,7 @@
         <v>0.9987625760967922</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>1694</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="260">
@@ -9538,7 +10764,7 @@
         <v>0.99873486544567802</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1695</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="261">
@@ -9555,7 +10781,7 @@
         <v>0.99870811033425722</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1696</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="262">
@@ -9572,7 +10798,7 @@
         <v>0.99937889919916223</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1697</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="263">
@@ -9589,7 +10815,7 @@
         <v>0.99931105588091684</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1697</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="264">
@@ -9604,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>1698</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="265">
@@ -9619,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="266">
@@ -9636,7 +10862,7 @@
         <v>0.99927283429317293</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="267">
@@ -9653,7 +10879,7 @@
         <v>0.99927283429317293</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="268">
@@ -9670,7 +10896,7 @@
         <v>0.99903586044916104</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="269">
@@ -9687,7 +10913,7 @@
         <v>0.99887962970925792</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="270">
@@ -9704,7 +10930,7 @@
         <v>0.99876830933495397</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="271">
@@ -9721,7 +10947,7 @@
         <v>0.99854614635619277</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>1699</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="272">
@@ -9738,7 +10964,7 @@
         <v>0.99937985473885582</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>1700</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="273">
@@ -9753,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>1700</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="274">
@@ -9768,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>1701</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="275">
@@ -9785,7 +11011,7 @@
         <v>0.99983182501392698</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>1702</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="276">
@@ -9802,7 +11028,7 @@
         <v>0.99933303329386969</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>1703</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="277">
@@ -9819,7 +11045,7 @@
         <v>0.99914479197423112</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>1703</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="278">
@@ -9836,7 +11062,7 @@
         <v>0.99898999454386839</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>1704</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="279">
@@ -9853,7 +11079,7 @@
         <v>0.99931487803969121</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>1704</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="280">
@@ -9870,7 +11096,7 @@
         <v>0.99873486544567813</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>1705</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="281">
@@ -9887,7 +11113,7 @@
         <v>0.99799718880222144</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>1705</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="282">
@@ -9904,7 +11130,7 @@
         <v>0.99886099668523276</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>1706</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="283">
@@ -9921,7 +11147,7 @@
         <v>0.99920307989554036</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="284">
@@ -9938,7 +11164,7 @@
         <v>0.99908841513230895</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="285">
@@ -9955,7 +11181,7 @@
         <v>0.99944483143802032</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="286">
@@ -9972,7 +11198,7 @@
         <v>0.9989756614484645</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="287">
@@ -9989,7 +11215,7 @@
         <v>0.99935692178620938</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="288">
@@ -10006,7 +11232,7 @@
         <v>0.99937603258008145</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="289">
@@ -10023,7 +11249,7 @@
         <v>0.99902630505222501</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="290">
@@ -10040,7 +11266,7 @@
         <v>0.99948496410515153</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="291">
@@ -10057,7 +11283,7 @@
         <v>0.99948591964484512</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="292">
@@ -10074,7 +11300,7 @@
         <v>0.99870333263578948</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="293">
@@ -10091,7 +11317,7 @@
         <v>0.99867562198467497</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="294">
@@ -10106,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="295">
@@ -10121,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="296">
@@ -10138,7 +11364,7 @@
         <v>0.99709038163299835</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="297">
@@ -10155,7 +11381,7 @@
         <v>0.99844438137882463</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>1707</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="298">
@@ -10170,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>1708</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="299">
@@ -10185,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="300">
@@ -10200,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="301">
@@ -10215,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="302">
@@ -10230,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="303">
@@ -10245,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="304">
@@ -10260,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="305">
@@ -10275,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="306">
@@ -10290,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="307">
@@ -10305,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="308">
@@ -10320,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="309">
@@ -10335,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="310">
@@ -10350,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="311">
@@ -10365,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="312">
@@ -10382,7 +11608,7 @@
         <v>0.99903394936977374</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="313">
@@ -10399,7 +11625,7 @@
         <v>0.99897136151984312</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="314">
@@ -10414,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="315">
@@ -10431,7 +11657,7 @@
         <v>0.99879793106545545</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="316">
@@ -10448,7 +11674,7 @@
         <v>0.99862497838091446</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="317">
@@ -10465,7 +11691,7 @@
         <v>0.99878168689066427</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="318">
@@ -10482,7 +11708,7 @@
         <v>0.99904732692548404</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="319">
@@ -10499,7 +11725,7 @@
         <v>0.99912185902158468</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1709</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="320">
@@ -10516,7 +11742,7 @@
         <v>0.99816631932798816</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1710</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="321">
@@ -10533,7 +11759,7 @@
         <v>0.99810038708912985</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>1711</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="322">
@@ -10550,7 +11776,7 @@
         <v>0.99851795793523146</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>1712</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="323">
@@ -10567,7 +11793,7 @@
         <v>0.99855379067374161</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1712</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
